--- a/inst/shiny/WPROACM/XLSX/New_Zealand_built_in_data.xlsx
+++ b/inst/shiny/WPROACM/XLSX/New_Zealand_built_in_data.xlsx
@@ -1,39 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handcock/Build/WPROACM/inst/shiny/WPROACM/XLSX/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41744056-EFF4-414C-8EFE-1C777DF697B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="25600" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="National level" sheetId="3" r:id="rId2"/>
     <sheet name="Region 1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="19">
   <si>
     <t>Guidance for Using the WPRO All-Cause Mortality Calculator</t>
   </si>
@@ -126,11 +123,14 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>START</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,64 +529,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,16 +574,70 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,15 +941,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:A12"/>
@@ -958,57 +958,57 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="118.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" thickBot="1">
+    <row r="1" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" thickBot="1">
+    <row r="2" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" ht="17" thickBot="1">
+    <row r="3" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="49" thickBot="1">
+    <row r="4" spans="1:1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17" thickBot="1">
+    <row r="5" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:1" ht="17" thickBot="1">
+    <row r="6" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="337" thickBot="1">
+    <row r="7" spans="1:1" ht="378" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
     </row>
   </sheetData>
@@ -1022,420 +1022,420 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:NI63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="MY7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="JD7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="LO12" sqref="LO12"/>
       <selection pane="topRight" activeCell="LO12" sqref="LO12"/>
       <selection pane="bottomLeft" activeCell="LO12" sqref="LO12"/>
-      <selection pane="bottomRight" activeCell="NI9" sqref="NI9"/>
+      <selection pane="bottomRight" activeCell="JH23" sqref="JH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="28"/>
     <col min="3" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:373" ht="15" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:373" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
-      <c r="CM1" s="59"/>
-      <c r="CN1" s="59"/>
-      <c r="CO1" s="59"/>
-      <c r="CP1" s="59"/>
-      <c r="CQ1" s="59"/>
-      <c r="CR1" s="59"/>
-      <c r="CS1" s="59"/>
-      <c r="CT1" s="59"/>
-      <c r="CU1" s="59"/>
-      <c r="CV1" s="59"/>
-      <c r="CW1" s="59"/>
-      <c r="CX1" s="59"/>
-      <c r="CY1" s="59"/>
-      <c r="CZ1" s="59"/>
-      <c r="DA1" s="59"/>
-      <c r="DB1" s="59"/>
-      <c r="DC1" s="59"/>
-      <c r="DD1" s="60"/>
-      <c r="DE1" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="61"/>
-      <c r="DH1" s="61"/>
-      <c r="DI1" s="61"/>
-      <c r="DJ1" s="61"/>
-      <c r="DK1" s="61"/>
-      <c r="DL1" s="61"/>
-      <c r="DM1" s="61"/>
-      <c r="DN1" s="61"/>
-      <c r="DO1" s="61"/>
-      <c r="DP1" s="61"/>
-      <c r="DQ1" s="61"/>
-      <c r="DR1" s="61"/>
-      <c r="DS1" s="61"/>
-      <c r="DT1" s="61"/>
-      <c r="DU1" s="61"/>
-      <c r="DV1" s="61"/>
-      <c r="DW1" s="61"/>
-      <c r="DX1" s="61"/>
-      <c r="DY1" s="61"/>
-      <c r="DZ1" s="61"/>
-      <c r="EA1" s="61"/>
-      <c r="EB1" s="61"/>
-      <c r="EC1" s="61"/>
-      <c r="ED1" s="61"/>
-      <c r="EE1" s="61"/>
-      <c r="EF1" s="61"/>
-      <c r="EG1" s="61"/>
-      <c r="EH1" s="61"/>
-      <c r="EI1" s="61"/>
-      <c r="EJ1" s="61"/>
-      <c r="EK1" s="61"/>
-      <c r="EL1" s="61"/>
-      <c r="EM1" s="61"/>
-      <c r="EN1" s="61"/>
-      <c r="EO1" s="61"/>
-      <c r="EP1" s="61"/>
-      <c r="EQ1" s="61"/>
-      <c r="ER1" s="61"/>
-      <c r="ES1" s="61"/>
-      <c r="ET1" s="61"/>
-      <c r="EU1" s="61"/>
-      <c r="EV1" s="61"/>
-      <c r="EW1" s="61"/>
-      <c r="EX1" s="61"/>
-      <c r="EY1" s="61"/>
-      <c r="EZ1" s="61"/>
-      <c r="FA1" s="61"/>
-      <c r="FB1" s="61"/>
-      <c r="FC1" s="61"/>
-      <c r="FD1" s="61"/>
-      <c r="FE1" s="62"/>
-      <c r="FF1" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="FG1" s="63"/>
-      <c r="FH1" s="63"/>
-      <c r="FI1" s="63"/>
-      <c r="FJ1" s="63"/>
-      <c r="FK1" s="63"/>
-      <c r="FL1" s="63"/>
-      <c r="FM1" s="63"/>
-      <c r="FN1" s="63"/>
-      <c r="FO1" s="63"/>
-      <c r="FP1" s="63"/>
-      <c r="FQ1" s="63"/>
-      <c r="FR1" s="63"/>
-      <c r="FS1" s="63"/>
-      <c r="FT1" s="63"/>
-      <c r="FU1" s="63"/>
-      <c r="FV1" s="63"/>
-      <c r="FW1" s="63"/>
-      <c r="FX1" s="63"/>
-      <c r="FY1" s="63"/>
-      <c r="FZ1" s="63"/>
-      <c r="GA1" s="63"/>
-      <c r="GB1" s="63"/>
-      <c r="GC1" s="63"/>
-      <c r="GD1" s="63"/>
-      <c r="GE1" s="63"/>
-      <c r="GF1" s="63"/>
-      <c r="GG1" s="63"/>
-      <c r="GH1" s="63"/>
-      <c r="GI1" s="63"/>
-      <c r="GJ1" s="63"/>
-      <c r="GK1" s="63"/>
-      <c r="GL1" s="63"/>
-      <c r="GM1" s="63"/>
-      <c r="GN1" s="63"/>
-      <c r="GO1" s="63"/>
-      <c r="GP1" s="63"/>
-      <c r="GQ1" s="63"/>
-      <c r="GR1" s="63"/>
-      <c r="GS1" s="63"/>
-      <c r="GT1" s="63"/>
-      <c r="GU1" s="63"/>
-      <c r="GV1" s="63"/>
-      <c r="GW1" s="63"/>
-      <c r="GX1" s="63"/>
-      <c r="GY1" s="63"/>
-      <c r="GZ1" s="63"/>
-      <c r="HA1" s="63"/>
-      <c r="HB1" s="63"/>
-      <c r="HC1" s="63"/>
-      <c r="HD1" s="63"/>
-      <c r="HE1" s="63"/>
-      <c r="HF1" s="64"/>
-      <c r="HG1" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="HH1" s="48"/>
-      <c r="HI1" s="48"/>
-      <c r="HJ1" s="48"/>
-      <c r="HK1" s="48"/>
-      <c r="HL1" s="48"/>
-      <c r="HM1" s="48"/>
-      <c r="HN1" s="48"/>
-      <c r="HO1" s="48"/>
-      <c r="HP1" s="48"/>
-      <c r="HQ1" s="48"/>
-      <c r="HR1" s="48"/>
-      <c r="HS1" s="48"/>
-      <c r="HT1" s="48"/>
-      <c r="HU1" s="48"/>
-      <c r="HV1" s="48"/>
-      <c r="HW1" s="48"/>
-      <c r="HX1" s="48"/>
-      <c r="HY1" s="48"/>
-      <c r="HZ1" s="48"/>
-      <c r="IA1" s="48"/>
-      <c r="IB1" s="48"/>
-      <c r="IC1" s="48"/>
-      <c r="ID1" s="48"/>
-      <c r="IE1" s="48"/>
-      <c r="IF1" s="48"/>
-      <c r="IG1" s="48"/>
-      <c r="IH1" s="48"/>
-      <c r="II1" s="48"/>
-      <c r="IJ1" s="48"/>
-      <c r="IK1" s="48"/>
-      <c r="IL1" s="48"/>
-      <c r="IM1" s="48"/>
-      <c r="IN1" s="48"/>
-      <c r="IO1" s="48"/>
-      <c r="IP1" s="48"/>
-      <c r="IQ1" s="48"/>
-      <c r="IR1" s="48"/>
-      <c r="IS1" s="48"/>
-      <c r="IT1" s="48"/>
-      <c r="IU1" s="48"/>
-      <c r="IV1" s="48"/>
-      <c r="IW1" s="48"/>
-      <c r="IX1" s="48"/>
-      <c r="IY1" s="48"/>
-      <c r="IZ1" s="48"/>
-      <c r="JA1" s="48"/>
-      <c r="JB1" s="48"/>
-      <c r="JC1" s="48"/>
-      <c r="JD1" s="48"/>
-      <c r="JE1" s="48"/>
-      <c r="JF1" s="48"/>
-      <c r="JG1" s="49"/>
-      <c r="JH1" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="JI1" s="50"/>
-      <c r="JJ1" s="50"/>
-      <c r="JK1" s="50"/>
-      <c r="JL1" s="50"/>
-      <c r="JM1" s="50"/>
-      <c r="JN1" s="50"/>
-      <c r="JO1" s="50"/>
-      <c r="JP1" s="50"/>
-      <c r="JQ1" s="50"/>
-      <c r="JR1" s="50"/>
-      <c r="JS1" s="50"/>
-      <c r="JT1" s="50"/>
-      <c r="JU1" s="50"/>
-      <c r="JV1" s="50"/>
-      <c r="JW1" s="50"/>
-      <c r="JX1" s="50"/>
-      <c r="JY1" s="50"/>
-      <c r="JZ1" s="50"/>
-      <c r="KA1" s="50"/>
-      <c r="KB1" s="50"/>
-      <c r="KC1" s="50"/>
-      <c r="KD1" s="50"/>
-      <c r="KE1" s="50"/>
-      <c r="KF1" s="50"/>
-      <c r="KG1" s="50"/>
-      <c r="KH1" s="50"/>
-      <c r="KI1" s="50"/>
-      <c r="KJ1" s="50"/>
-      <c r="KK1" s="50"/>
-      <c r="KL1" s="50"/>
-      <c r="KM1" s="50"/>
-      <c r="KN1" s="50"/>
-      <c r="KO1" s="50"/>
-      <c r="KP1" s="50"/>
-      <c r="KQ1" s="50"/>
-      <c r="KR1" s="50"/>
-      <c r="KS1" s="50"/>
-      <c r="KT1" s="50"/>
-      <c r="KU1" s="50"/>
-      <c r="KV1" s="50"/>
-      <c r="KW1" s="50"/>
-      <c r="KX1" s="50"/>
-      <c r="KY1" s="50"/>
-      <c r="KZ1" s="50"/>
-      <c r="LA1" s="50"/>
-      <c r="LB1" s="50"/>
-      <c r="LC1" s="50"/>
-      <c r="LD1" s="50"/>
-      <c r="LE1" s="50"/>
-      <c r="LF1" s="50"/>
-      <c r="LG1" s="50"/>
-      <c r="LH1" s="51"/>
-      <c r="LI1" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="LJ1" s="52"/>
-      <c r="LK1" s="52"/>
-      <c r="LL1" s="52"/>
-      <c r="LM1" s="52"/>
-      <c r="LN1" s="52"/>
-      <c r="LO1" s="52"/>
-      <c r="LP1" s="52"/>
-      <c r="LQ1" s="52"/>
-      <c r="LR1" s="52"/>
-      <c r="LS1" s="52"/>
-      <c r="LT1" s="52"/>
-      <c r="LU1" s="52"/>
-      <c r="LV1" s="52"/>
-      <c r="LW1" s="52"/>
-      <c r="LX1" s="52"/>
-      <c r="LY1" s="52"/>
-      <c r="LZ1" s="52"/>
-      <c r="MA1" s="52"/>
-      <c r="MB1" s="52"/>
-      <c r="MC1" s="52"/>
-      <c r="MD1" s="52"/>
-      <c r="ME1" s="52"/>
-      <c r="MF1" s="52"/>
-      <c r="MG1" s="52"/>
-      <c r="MH1" s="52"/>
-      <c r="MI1" s="52"/>
-      <c r="MJ1" s="52"/>
-      <c r="MK1" s="52"/>
-      <c r="ML1" s="52"/>
-      <c r="MM1" s="52"/>
-      <c r="MN1" s="52"/>
-      <c r="MO1" s="52"/>
-      <c r="MP1" s="52"/>
-      <c r="MQ1" s="52"/>
-      <c r="MR1" s="52"/>
-      <c r="MS1" s="52"/>
-      <c r="MT1" s="52"/>
-      <c r="MU1" s="52"/>
-      <c r="MV1" s="52"/>
-      <c r="MW1" s="52"/>
-      <c r="MX1" s="52"/>
-      <c r="MY1" s="52"/>
-      <c r="MZ1" s="52"/>
-      <c r="NA1" s="52"/>
-      <c r="NB1" s="52"/>
-      <c r="NC1" s="52"/>
-      <c r="ND1" s="52"/>
-      <c r="NE1" s="52"/>
-      <c r="NF1" s="52"/>
-      <c r="NG1" s="52"/>
-      <c r="NH1" s="52"/>
-      <c r="NI1" s="53"/>
+      <c r="C1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
+      <c r="BU1" s="68"/>
+      <c r="BV1" s="68"/>
+      <c r="BW1" s="68"/>
+      <c r="BX1" s="68"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="68"/>
+      <c r="CL1" s="68"/>
+      <c r="CM1" s="68"/>
+      <c r="CN1" s="68"/>
+      <c r="CO1" s="68"/>
+      <c r="CP1" s="68"/>
+      <c r="CQ1" s="68"/>
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="68"/>
+      <c r="CT1" s="68"/>
+      <c r="CU1" s="68"/>
+      <c r="CV1" s="68"/>
+      <c r="CW1" s="68"/>
+      <c r="CX1" s="68"/>
+      <c r="CY1" s="68"/>
+      <c r="CZ1" s="68"/>
+      <c r="DA1" s="68"/>
+      <c r="DB1" s="68"/>
+      <c r="DC1" s="68"/>
+      <c r="DD1" s="69"/>
+      <c r="DE1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF1" s="70"/>
+      <c r="DG1" s="70"/>
+      <c r="DH1" s="70"/>
+      <c r="DI1" s="70"/>
+      <c r="DJ1" s="70"/>
+      <c r="DK1" s="70"/>
+      <c r="DL1" s="70"/>
+      <c r="DM1" s="70"/>
+      <c r="DN1" s="70"/>
+      <c r="DO1" s="70"/>
+      <c r="DP1" s="70"/>
+      <c r="DQ1" s="70"/>
+      <c r="DR1" s="70"/>
+      <c r="DS1" s="70"/>
+      <c r="DT1" s="70"/>
+      <c r="DU1" s="70"/>
+      <c r="DV1" s="70"/>
+      <c r="DW1" s="70"/>
+      <c r="DX1" s="70"/>
+      <c r="DY1" s="70"/>
+      <c r="DZ1" s="70"/>
+      <c r="EA1" s="70"/>
+      <c r="EB1" s="70"/>
+      <c r="EC1" s="70"/>
+      <c r="ED1" s="70"/>
+      <c r="EE1" s="70"/>
+      <c r="EF1" s="70"/>
+      <c r="EG1" s="70"/>
+      <c r="EH1" s="70"/>
+      <c r="EI1" s="70"/>
+      <c r="EJ1" s="70"/>
+      <c r="EK1" s="70"/>
+      <c r="EL1" s="70"/>
+      <c r="EM1" s="70"/>
+      <c r="EN1" s="70"/>
+      <c r="EO1" s="70"/>
+      <c r="EP1" s="70"/>
+      <c r="EQ1" s="70"/>
+      <c r="ER1" s="70"/>
+      <c r="ES1" s="70"/>
+      <c r="ET1" s="70"/>
+      <c r="EU1" s="70"/>
+      <c r="EV1" s="70"/>
+      <c r="EW1" s="70"/>
+      <c r="EX1" s="70"/>
+      <c r="EY1" s="70"/>
+      <c r="EZ1" s="70"/>
+      <c r="FA1" s="70"/>
+      <c r="FB1" s="70"/>
+      <c r="FC1" s="70"/>
+      <c r="FD1" s="70"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG1" s="72"/>
+      <c r="FH1" s="72"/>
+      <c r="FI1" s="72"/>
+      <c r="FJ1" s="72"/>
+      <c r="FK1" s="72"/>
+      <c r="FL1" s="72"/>
+      <c r="FM1" s="72"/>
+      <c r="FN1" s="72"/>
+      <c r="FO1" s="72"/>
+      <c r="FP1" s="72"/>
+      <c r="FQ1" s="72"/>
+      <c r="FR1" s="72"/>
+      <c r="FS1" s="72"/>
+      <c r="FT1" s="72"/>
+      <c r="FU1" s="72"/>
+      <c r="FV1" s="72"/>
+      <c r="FW1" s="72"/>
+      <c r="FX1" s="72"/>
+      <c r="FY1" s="72"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="72"/>
+      <c r="GB1" s="72"/>
+      <c r="GC1" s="72"/>
+      <c r="GD1" s="72"/>
+      <c r="GE1" s="72"/>
+      <c r="GF1" s="72"/>
+      <c r="GG1" s="72"/>
+      <c r="GH1" s="72"/>
+      <c r="GI1" s="72"/>
+      <c r="GJ1" s="72"/>
+      <c r="GK1" s="72"/>
+      <c r="GL1" s="72"/>
+      <c r="GM1" s="72"/>
+      <c r="GN1" s="72"/>
+      <c r="GO1" s="72"/>
+      <c r="GP1" s="72"/>
+      <c r="GQ1" s="72"/>
+      <c r="GR1" s="72"/>
+      <c r="GS1" s="72"/>
+      <c r="GT1" s="72"/>
+      <c r="GU1" s="72"/>
+      <c r="GV1" s="72"/>
+      <c r="GW1" s="72"/>
+      <c r="GX1" s="72"/>
+      <c r="GY1" s="72"/>
+      <c r="GZ1" s="72"/>
+      <c r="HA1" s="72"/>
+      <c r="HB1" s="72"/>
+      <c r="HC1" s="72"/>
+      <c r="HD1" s="72"/>
+      <c r="HE1" s="72"/>
+      <c r="HF1" s="73"/>
+      <c r="HG1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH1" s="60"/>
+      <c r="HI1" s="60"/>
+      <c r="HJ1" s="60"/>
+      <c r="HK1" s="60"/>
+      <c r="HL1" s="60"/>
+      <c r="HM1" s="60"/>
+      <c r="HN1" s="60"/>
+      <c r="HO1" s="60"/>
+      <c r="HP1" s="60"/>
+      <c r="HQ1" s="60"/>
+      <c r="HR1" s="60"/>
+      <c r="HS1" s="60"/>
+      <c r="HT1" s="60"/>
+      <c r="HU1" s="60"/>
+      <c r="HV1" s="60"/>
+      <c r="HW1" s="60"/>
+      <c r="HX1" s="60"/>
+      <c r="HY1" s="60"/>
+      <c r="HZ1" s="60"/>
+      <c r="IA1" s="60"/>
+      <c r="IB1" s="60"/>
+      <c r="IC1" s="60"/>
+      <c r="ID1" s="60"/>
+      <c r="IE1" s="60"/>
+      <c r="IF1" s="60"/>
+      <c r="IG1" s="60"/>
+      <c r="IH1" s="60"/>
+      <c r="II1" s="60"/>
+      <c r="IJ1" s="60"/>
+      <c r="IK1" s="60"/>
+      <c r="IL1" s="60"/>
+      <c r="IM1" s="60"/>
+      <c r="IN1" s="60"/>
+      <c r="IO1" s="60"/>
+      <c r="IP1" s="60"/>
+      <c r="IQ1" s="60"/>
+      <c r="IR1" s="60"/>
+      <c r="IS1" s="60"/>
+      <c r="IT1" s="60"/>
+      <c r="IU1" s="60"/>
+      <c r="IV1" s="60"/>
+      <c r="IW1" s="60"/>
+      <c r="IX1" s="60"/>
+      <c r="IY1" s="60"/>
+      <c r="IZ1" s="60"/>
+      <c r="JA1" s="60"/>
+      <c r="JB1" s="60"/>
+      <c r="JC1" s="60"/>
+      <c r="JD1" s="60"/>
+      <c r="JE1" s="60"/>
+      <c r="JF1" s="60"/>
+      <c r="JG1" s="61"/>
+      <c r="JH1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI1" s="63"/>
+      <c r="JJ1" s="63"/>
+      <c r="JK1" s="63"/>
+      <c r="JL1" s="63"/>
+      <c r="JM1" s="63"/>
+      <c r="JN1" s="63"/>
+      <c r="JO1" s="63"/>
+      <c r="JP1" s="63"/>
+      <c r="JQ1" s="63"/>
+      <c r="JR1" s="63"/>
+      <c r="JS1" s="63"/>
+      <c r="JT1" s="63"/>
+      <c r="JU1" s="63"/>
+      <c r="JV1" s="63"/>
+      <c r="JW1" s="63"/>
+      <c r="JX1" s="63"/>
+      <c r="JY1" s="63"/>
+      <c r="JZ1" s="63"/>
+      <c r="KA1" s="63"/>
+      <c r="KB1" s="63"/>
+      <c r="KC1" s="63"/>
+      <c r="KD1" s="63"/>
+      <c r="KE1" s="63"/>
+      <c r="KF1" s="63"/>
+      <c r="KG1" s="63"/>
+      <c r="KH1" s="63"/>
+      <c r="KI1" s="63"/>
+      <c r="KJ1" s="63"/>
+      <c r="KK1" s="63"/>
+      <c r="KL1" s="63"/>
+      <c r="KM1" s="63"/>
+      <c r="KN1" s="63"/>
+      <c r="KO1" s="63"/>
+      <c r="KP1" s="63"/>
+      <c r="KQ1" s="63"/>
+      <c r="KR1" s="63"/>
+      <c r="KS1" s="63"/>
+      <c r="KT1" s="63"/>
+      <c r="KU1" s="63"/>
+      <c r="KV1" s="63"/>
+      <c r="KW1" s="63"/>
+      <c r="KX1" s="63"/>
+      <c r="KY1" s="63"/>
+      <c r="KZ1" s="63"/>
+      <c r="LA1" s="63"/>
+      <c r="LB1" s="63"/>
+      <c r="LC1" s="63"/>
+      <c r="LD1" s="63"/>
+      <c r="LE1" s="63"/>
+      <c r="LF1" s="63"/>
+      <c r="LG1" s="63"/>
+      <c r="LH1" s="64"/>
+      <c r="LI1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="LJ1" s="45"/>
+      <c r="LK1" s="45"/>
+      <c r="LL1" s="45"/>
+      <c r="LM1" s="45"/>
+      <c r="LN1" s="45"/>
+      <c r="LO1" s="45"/>
+      <c r="LP1" s="45"/>
+      <c r="LQ1" s="45"/>
+      <c r="LR1" s="45"/>
+      <c r="LS1" s="45"/>
+      <c r="LT1" s="45"/>
+      <c r="LU1" s="45"/>
+      <c r="LV1" s="45"/>
+      <c r="LW1" s="45"/>
+      <c r="LX1" s="45"/>
+      <c r="LY1" s="45"/>
+      <c r="LZ1" s="45"/>
+      <c r="MA1" s="45"/>
+      <c r="MB1" s="45"/>
+      <c r="MC1" s="45"/>
+      <c r="MD1" s="45"/>
+      <c r="ME1" s="45"/>
+      <c r="MF1" s="45"/>
+      <c r="MG1" s="45"/>
+      <c r="MH1" s="45"/>
+      <c r="MI1" s="45"/>
+      <c r="MJ1" s="45"/>
+      <c r="MK1" s="45"/>
+      <c r="ML1" s="45"/>
+      <c r="MM1" s="45"/>
+      <c r="MN1" s="45"/>
+      <c r="MO1" s="45"/>
+      <c r="MP1" s="45"/>
+      <c r="MQ1" s="45"/>
+      <c r="MR1" s="45"/>
+      <c r="MS1" s="45"/>
+      <c r="MT1" s="45"/>
+      <c r="MU1" s="45"/>
+      <c r="MV1" s="45"/>
+      <c r="MW1" s="45"/>
+      <c r="MX1" s="45"/>
+      <c r="MY1" s="45"/>
+      <c r="MZ1" s="45"/>
+      <c r="NA1" s="45"/>
+      <c r="NB1" s="45"/>
+      <c r="NC1" s="45"/>
+      <c r="ND1" s="45"/>
+      <c r="NE1" s="45"/>
+      <c r="NF1" s="45"/>
+      <c r="NG1" s="45"/>
+      <c r="NH1" s="45"/>
+      <c r="NI1" s="46"/>
     </row>
-    <row r="2" spans="1:373">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+    <row r="2" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="11">
         <v>2015</v>
       </c>
@@ -2550,398 +2550,398 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:373">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="65" t="s">
+    <row r="3" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="68" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="70"/>
-      <c r="DE3" s="71" t="s">
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="51"/>
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="51"/>
+      <c r="BV3" s="51"/>
+      <c r="BW3" s="51"/>
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="51"/>
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="51"/>
+      <c r="CB3" s="51"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="51"/>
+      <c r="CE3" s="51"/>
+      <c r="CF3" s="51"/>
+      <c r="CG3" s="51"/>
+      <c r="CH3" s="51"/>
+      <c r="CI3" s="51"/>
+      <c r="CJ3" s="51"/>
+      <c r="CK3" s="51"/>
+      <c r="CL3" s="51"/>
+      <c r="CM3" s="51"/>
+      <c r="CN3" s="51"/>
+      <c r="CO3" s="51"/>
+      <c r="CP3" s="51"/>
+      <c r="CQ3" s="51"/>
+      <c r="CR3" s="51"/>
+      <c r="CS3" s="51"/>
+      <c r="CT3" s="51"/>
+      <c r="CU3" s="51"/>
+      <c r="CV3" s="51"/>
+      <c r="CW3" s="51"/>
+      <c r="CX3" s="51"/>
+      <c r="CY3" s="51"/>
+      <c r="CZ3" s="51"/>
+      <c r="DA3" s="51"/>
+      <c r="DB3" s="51"/>
+      <c r="DC3" s="51"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="DF3" s="72"/>
-      <c r="DG3" s="72"/>
-      <c r="DH3" s="72"/>
-      <c r="DI3" s="72"/>
-      <c r="DJ3" s="72"/>
-      <c r="DK3" s="72"/>
-      <c r="DL3" s="72"/>
-      <c r="DM3" s="72"/>
-      <c r="DN3" s="72"/>
-      <c r="DO3" s="72"/>
-      <c r="DP3" s="72"/>
-      <c r="DQ3" s="72"/>
-      <c r="DR3" s="72"/>
-      <c r="DS3" s="72"/>
-      <c r="DT3" s="72"/>
-      <c r="DU3" s="72"/>
-      <c r="DV3" s="72"/>
-      <c r="DW3" s="72"/>
-      <c r="DX3" s="72"/>
-      <c r="DY3" s="72"/>
-      <c r="DZ3" s="72"/>
-      <c r="EA3" s="72"/>
-      <c r="EB3" s="72"/>
-      <c r="EC3" s="72"/>
-      <c r="ED3" s="72"/>
-      <c r="EE3" s="72"/>
-      <c r="EF3" s="72"/>
-      <c r="EG3" s="72"/>
-      <c r="EH3" s="72"/>
-      <c r="EI3" s="72"/>
-      <c r="EJ3" s="72"/>
-      <c r="EK3" s="72"/>
-      <c r="EL3" s="72"/>
-      <c r="EM3" s="72"/>
-      <c r="EN3" s="72"/>
-      <c r="EO3" s="72"/>
-      <c r="EP3" s="72"/>
-      <c r="EQ3" s="72"/>
-      <c r="ER3" s="72"/>
-      <c r="ES3" s="72"/>
-      <c r="ET3" s="72"/>
-      <c r="EU3" s="72"/>
-      <c r="EV3" s="72"/>
-      <c r="EW3" s="72"/>
-      <c r="EX3" s="72"/>
-      <c r="EY3" s="72"/>
-      <c r="EZ3" s="72"/>
-      <c r="FA3" s="72"/>
-      <c r="FB3" s="72"/>
-      <c r="FC3" s="72"/>
-      <c r="FD3" s="72"/>
-      <c r="FE3" s="73"/>
-      <c r="FF3" s="74" t="s">
+      <c r="DF3" s="54"/>
+      <c r="DG3" s="54"/>
+      <c r="DH3" s="54"/>
+      <c r="DI3" s="54"/>
+      <c r="DJ3" s="54"/>
+      <c r="DK3" s="54"/>
+      <c r="DL3" s="54"/>
+      <c r="DM3" s="54"/>
+      <c r="DN3" s="54"/>
+      <c r="DO3" s="54"/>
+      <c r="DP3" s="54"/>
+      <c r="DQ3" s="54"/>
+      <c r="DR3" s="54"/>
+      <c r="DS3" s="54"/>
+      <c r="DT3" s="54"/>
+      <c r="DU3" s="54"/>
+      <c r="DV3" s="54"/>
+      <c r="DW3" s="54"/>
+      <c r="DX3" s="54"/>
+      <c r="DY3" s="54"/>
+      <c r="DZ3" s="54"/>
+      <c r="EA3" s="54"/>
+      <c r="EB3" s="54"/>
+      <c r="EC3" s="54"/>
+      <c r="ED3" s="54"/>
+      <c r="EE3" s="54"/>
+      <c r="EF3" s="54"/>
+      <c r="EG3" s="54"/>
+      <c r="EH3" s="54"/>
+      <c r="EI3" s="54"/>
+      <c r="EJ3" s="54"/>
+      <c r="EK3" s="54"/>
+      <c r="EL3" s="54"/>
+      <c r="EM3" s="54"/>
+      <c r="EN3" s="54"/>
+      <c r="EO3" s="54"/>
+      <c r="EP3" s="54"/>
+      <c r="EQ3" s="54"/>
+      <c r="ER3" s="54"/>
+      <c r="ES3" s="54"/>
+      <c r="ET3" s="54"/>
+      <c r="EU3" s="54"/>
+      <c r="EV3" s="54"/>
+      <c r="EW3" s="54"/>
+      <c r="EX3" s="54"/>
+      <c r="EY3" s="54"/>
+      <c r="EZ3" s="54"/>
+      <c r="FA3" s="54"/>
+      <c r="FB3" s="54"/>
+      <c r="FC3" s="54"/>
+      <c r="FD3" s="54"/>
+      <c r="FE3" s="55"/>
+      <c r="FF3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="FG3" s="75"/>
-      <c r="FH3" s="75"/>
-      <c r="FI3" s="75"/>
-      <c r="FJ3" s="75"/>
-      <c r="FK3" s="75"/>
-      <c r="FL3" s="75"/>
-      <c r="FM3" s="75"/>
-      <c r="FN3" s="75"/>
-      <c r="FO3" s="75"/>
-      <c r="FP3" s="75"/>
-      <c r="FQ3" s="75"/>
-      <c r="FR3" s="75"/>
-      <c r="FS3" s="75"/>
-      <c r="FT3" s="75"/>
-      <c r="FU3" s="75"/>
-      <c r="FV3" s="75"/>
-      <c r="FW3" s="75"/>
-      <c r="FX3" s="75"/>
-      <c r="FY3" s="75"/>
-      <c r="FZ3" s="75"/>
-      <c r="GA3" s="75"/>
-      <c r="GB3" s="75"/>
-      <c r="GC3" s="75"/>
-      <c r="GD3" s="75"/>
-      <c r="GE3" s="75"/>
-      <c r="GF3" s="75"/>
-      <c r="GG3" s="75"/>
-      <c r="GH3" s="75"/>
-      <c r="GI3" s="75"/>
-      <c r="GJ3" s="75"/>
-      <c r="GK3" s="75"/>
-      <c r="GL3" s="75"/>
-      <c r="GM3" s="75"/>
-      <c r="GN3" s="75"/>
-      <c r="GO3" s="75"/>
-      <c r="GP3" s="75"/>
-      <c r="GQ3" s="75"/>
-      <c r="GR3" s="75"/>
-      <c r="GS3" s="75"/>
-      <c r="GT3" s="75"/>
-      <c r="GU3" s="75"/>
-      <c r="GV3" s="75"/>
-      <c r="GW3" s="75"/>
-      <c r="GX3" s="75"/>
-      <c r="GY3" s="75"/>
-      <c r="GZ3" s="75"/>
-      <c r="HA3" s="75"/>
-      <c r="HB3" s="75"/>
-      <c r="HC3" s="75"/>
-      <c r="HD3" s="75"/>
-      <c r="HE3" s="75"/>
-      <c r="HF3" s="76"/>
-      <c r="HG3" s="77" t="s">
+      <c r="FG3" s="57"/>
+      <c r="FH3" s="57"/>
+      <c r="FI3" s="57"/>
+      <c r="FJ3" s="57"/>
+      <c r="FK3" s="57"/>
+      <c r="FL3" s="57"/>
+      <c r="FM3" s="57"/>
+      <c r="FN3" s="57"/>
+      <c r="FO3" s="57"/>
+      <c r="FP3" s="57"/>
+      <c r="FQ3" s="57"/>
+      <c r="FR3" s="57"/>
+      <c r="FS3" s="57"/>
+      <c r="FT3" s="57"/>
+      <c r="FU3" s="57"/>
+      <c r="FV3" s="57"/>
+      <c r="FW3" s="57"/>
+      <c r="FX3" s="57"/>
+      <c r="FY3" s="57"/>
+      <c r="FZ3" s="57"/>
+      <c r="GA3" s="57"/>
+      <c r="GB3" s="57"/>
+      <c r="GC3" s="57"/>
+      <c r="GD3" s="57"/>
+      <c r="GE3" s="57"/>
+      <c r="GF3" s="57"/>
+      <c r="GG3" s="57"/>
+      <c r="GH3" s="57"/>
+      <c r="GI3" s="57"/>
+      <c r="GJ3" s="57"/>
+      <c r="GK3" s="57"/>
+      <c r="GL3" s="57"/>
+      <c r="GM3" s="57"/>
+      <c r="GN3" s="57"/>
+      <c r="GO3" s="57"/>
+      <c r="GP3" s="57"/>
+      <c r="GQ3" s="57"/>
+      <c r="GR3" s="57"/>
+      <c r="GS3" s="57"/>
+      <c r="GT3" s="57"/>
+      <c r="GU3" s="57"/>
+      <c r="GV3" s="57"/>
+      <c r="GW3" s="57"/>
+      <c r="GX3" s="57"/>
+      <c r="GY3" s="57"/>
+      <c r="GZ3" s="57"/>
+      <c r="HA3" s="57"/>
+      <c r="HB3" s="57"/>
+      <c r="HC3" s="57"/>
+      <c r="HD3" s="57"/>
+      <c r="HE3" s="57"/>
+      <c r="HF3" s="58"/>
+      <c r="HG3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="HH3" s="48"/>
-      <c r="HI3" s="48"/>
-      <c r="HJ3" s="48"/>
-      <c r="HK3" s="48"/>
-      <c r="HL3" s="48"/>
-      <c r="HM3" s="48"/>
-      <c r="HN3" s="48"/>
-      <c r="HO3" s="48"/>
-      <c r="HP3" s="48"/>
-      <c r="HQ3" s="48"/>
-      <c r="HR3" s="48"/>
-      <c r="HS3" s="48"/>
-      <c r="HT3" s="48"/>
-      <c r="HU3" s="48"/>
-      <c r="HV3" s="48"/>
-      <c r="HW3" s="48"/>
-      <c r="HX3" s="48"/>
-      <c r="HY3" s="48"/>
-      <c r="HZ3" s="48"/>
-      <c r="IA3" s="48"/>
-      <c r="IB3" s="48"/>
-      <c r="IC3" s="48"/>
-      <c r="ID3" s="48"/>
-      <c r="IE3" s="48"/>
-      <c r="IF3" s="48"/>
-      <c r="IG3" s="48"/>
-      <c r="IH3" s="48"/>
-      <c r="II3" s="48"/>
-      <c r="IJ3" s="48"/>
-      <c r="IK3" s="48"/>
-      <c r="IL3" s="48"/>
-      <c r="IM3" s="48"/>
-      <c r="IN3" s="48"/>
-      <c r="IO3" s="48"/>
-      <c r="IP3" s="48"/>
-      <c r="IQ3" s="48"/>
-      <c r="IR3" s="48"/>
-      <c r="IS3" s="48"/>
-      <c r="IT3" s="48"/>
-      <c r="IU3" s="48"/>
-      <c r="IV3" s="48"/>
-      <c r="IW3" s="48"/>
-      <c r="IX3" s="48"/>
-      <c r="IY3" s="48"/>
-      <c r="IZ3" s="48"/>
-      <c r="JA3" s="48"/>
-      <c r="JB3" s="48"/>
-      <c r="JC3" s="48"/>
-      <c r="JD3" s="48"/>
-      <c r="JE3" s="48"/>
-      <c r="JF3" s="48"/>
-      <c r="JG3" s="49"/>
-      <c r="JH3" s="78" t="s">
+      <c r="HH3" s="60"/>
+      <c r="HI3" s="60"/>
+      <c r="HJ3" s="60"/>
+      <c r="HK3" s="60"/>
+      <c r="HL3" s="60"/>
+      <c r="HM3" s="60"/>
+      <c r="HN3" s="60"/>
+      <c r="HO3" s="60"/>
+      <c r="HP3" s="60"/>
+      <c r="HQ3" s="60"/>
+      <c r="HR3" s="60"/>
+      <c r="HS3" s="60"/>
+      <c r="HT3" s="60"/>
+      <c r="HU3" s="60"/>
+      <c r="HV3" s="60"/>
+      <c r="HW3" s="60"/>
+      <c r="HX3" s="60"/>
+      <c r="HY3" s="60"/>
+      <c r="HZ3" s="60"/>
+      <c r="IA3" s="60"/>
+      <c r="IB3" s="60"/>
+      <c r="IC3" s="60"/>
+      <c r="ID3" s="60"/>
+      <c r="IE3" s="60"/>
+      <c r="IF3" s="60"/>
+      <c r="IG3" s="60"/>
+      <c r="IH3" s="60"/>
+      <c r="II3" s="60"/>
+      <c r="IJ3" s="60"/>
+      <c r="IK3" s="60"/>
+      <c r="IL3" s="60"/>
+      <c r="IM3" s="60"/>
+      <c r="IN3" s="60"/>
+      <c r="IO3" s="60"/>
+      <c r="IP3" s="60"/>
+      <c r="IQ3" s="60"/>
+      <c r="IR3" s="60"/>
+      <c r="IS3" s="60"/>
+      <c r="IT3" s="60"/>
+      <c r="IU3" s="60"/>
+      <c r="IV3" s="60"/>
+      <c r="IW3" s="60"/>
+      <c r="IX3" s="60"/>
+      <c r="IY3" s="60"/>
+      <c r="IZ3" s="60"/>
+      <c r="JA3" s="60"/>
+      <c r="JB3" s="60"/>
+      <c r="JC3" s="60"/>
+      <c r="JD3" s="60"/>
+      <c r="JE3" s="60"/>
+      <c r="JF3" s="60"/>
+      <c r="JG3" s="61"/>
+      <c r="JH3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="JI3" s="50"/>
-      <c r="JJ3" s="50"/>
-      <c r="JK3" s="50"/>
-      <c r="JL3" s="50"/>
-      <c r="JM3" s="50"/>
-      <c r="JN3" s="50"/>
-      <c r="JO3" s="50"/>
-      <c r="JP3" s="50"/>
-      <c r="JQ3" s="50"/>
-      <c r="JR3" s="50"/>
-      <c r="JS3" s="50"/>
-      <c r="JT3" s="50"/>
-      <c r="JU3" s="50"/>
-      <c r="JV3" s="50"/>
-      <c r="JW3" s="50"/>
-      <c r="JX3" s="50"/>
-      <c r="JY3" s="50"/>
-      <c r="JZ3" s="50"/>
-      <c r="KA3" s="50"/>
-      <c r="KB3" s="50"/>
-      <c r="KC3" s="50"/>
-      <c r="KD3" s="50"/>
-      <c r="KE3" s="50"/>
-      <c r="KF3" s="50"/>
-      <c r="KG3" s="50"/>
-      <c r="KH3" s="50"/>
-      <c r="KI3" s="50"/>
-      <c r="KJ3" s="50"/>
-      <c r="KK3" s="50"/>
-      <c r="KL3" s="50"/>
-      <c r="KM3" s="50"/>
-      <c r="KN3" s="50"/>
-      <c r="KO3" s="50"/>
-      <c r="KP3" s="50"/>
-      <c r="KQ3" s="50"/>
-      <c r="KR3" s="50"/>
-      <c r="KS3" s="50"/>
-      <c r="KT3" s="50"/>
-      <c r="KU3" s="50"/>
-      <c r="KV3" s="50"/>
-      <c r="KW3" s="50"/>
-      <c r="KX3" s="50"/>
-      <c r="KY3" s="50"/>
-      <c r="KZ3" s="50"/>
-      <c r="LA3" s="50"/>
-      <c r="LB3" s="50"/>
-      <c r="LC3" s="50"/>
-      <c r="LD3" s="50"/>
-      <c r="LE3" s="50"/>
-      <c r="LF3" s="50"/>
-      <c r="LG3" s="50"/>
-      <c r="LH3" s="51"/>
-      <c r="LI3" s="79" t="s">
+      <c r="JI3" s="63"/>
+      <c r="JJ3" s="63"/>
+      <c r="JK3" s="63"/>
+      <c r="JL3" s="63"/>
+      <c r="JM3" s="63"/>
+      <c r="JN3" s="63"/>
+      <c r="JO3" s="63"/>
+      <c r="JP3" s="63"/>
+      <c r="JQ3" s="63"/>
+      <c r="JR3" s="63"/>
+      <c r="JS3" s="63"/>
+      <c r="JT3" s="63"/>
+      <c r="JU3" s="63"/>
+      <c r="JV3" s="63"/>
+      <c r="JW3" s="63"/>
+      <c r="JX3" s="63"/>
+      <c r="JY3" s="63"/>
+      <c r="JZ3" s="63"/>
+      <c r="KA3" s="63"/>
+      <c r="KB3" s="63"/>
+      <c r="KC3" s="63"/>
+      <c r="KD3" s="63"/>
+      <c r="KE3" s="63"/>
+      <c r="KF3" s="63"/>
+      <c r="KG3" s="63"/>
+      <c r="KH3" s="63"/>
+      <c r="KI3" s="63"/>
+      <c r="KJ3" s="63"/>
+      <c r="KK3" s="63"/>
+      <c r="KL3" s="63"/>
+      <c r="KM3" s="63"/>
+      <c r="KN3" s="63"/>
+      <c r="KO3" s="63"/>
+      <c r="KP3" s="63"/>
+      <c r="KQ3" s="63"/>
+      <c r="KR3" s="63"/>
+      <c r="KS3" s="63"/>
+      <c r="KT3" s="63"/>
+      <c r="KU3" s="63"/>
+      <c r="KV3" s="63"/>
+      <c r="KW3" s="63"/>
+      <c r="KX3" s="63"/>
+      <c r="KY3" s="63"/>
+      <c r="KZ3" s="63"/>
+      <c r="LA3" s="63"/>
+      <c r="LB3" s="63"/>
+      <c r="LC3" s="63"/>
+      <c r="LD3" s="63"/>
+      <c r="LE3" s="63"/>
+      <c r="LF3" s="63"/>
+      <c r="LG3" s="63"/>
+      <c r="LH3" s="64"/>
+      <c r="LI3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="LJ3" s="52"/>
-      <c r="LK3" s="52"/>
-      <c r="LL3" s="52"/>
-      <c r="LM3" s="52"/>
-      <c r="LN3" s="52"/>
-      <c r="LO3" s="52"/>
-      <c r="LP3" s="52"/>
-      <c r="LQ3" s="52"/>
-      <c r="LR3" s="52"/>
-      <c r="LS3" s="52"/>
-      <c r="LT3" s="52"/>
-      <c r="LU3" s="52"/>
-      <c r="LV3" s="52"/>
-      <c r="LW3" s="52"/>
-      <c r="LX3" s="52"/>
-      <c r="LY3" s="52"/>
-      <c r="LZ3" s="52"/>
-      <c r="MA3" s="52"/>
-      <c r="MB3" s="52"/>
-      <c r="MC3" s="52"/>
-      <c r="MD3" s="52"/>
-      <c r="ME3" s="52"/>
-      <c r="MF3" s="52"/>
-      <c r="MG3" s="52"/>
-      <c r="MH3" s="52"/>
-      <c r="MI3" s="52"/>
-      <c r="MJ3" s="52"/>
-      <c r="MK3" s="52"/>
-      <c r="ML3" s="52"/>
-      <c r="MM3" s="52"/>
-      <c r="MN3" s="52"/>
-      <c r="MO3" s="52"/>
-      <c r="MP3" s="52"/>
-      <c r="MQ3" s="52"/>
-      <c r="MR3" s="52"/>
-      <c r="MS3" s="52"/>
-      <c r="MT3" s="52"/>
-      <c r="MU3" s="52"/>
-      <c r="MV3" s="52"/>
-      <c r="MW3" s="52"/>
-      <c r="MX3" s="52"/>
-      <c r="MY3" s="52"/>
-      <c r="MZ3" s="52"/>
-      <c r="NA3" s="52"/>
-      <c r="NB3" s="52"/>
-      <c r="NC3" s="52"/>
-      <c r="ND3" s="52"/>
-      <c r="NE3" s="52"/>
-      <c r="NF3" s="52"/>
-      <c r="NG3" s="52"/>
-      <c r="NH3" s="52"/>
-      <c r="NI3" s="53"/>
+      <c r="LJ3" s="45"/>
+      <c r="LK3" s="45"/>
+      <c r="LL3" s="45"/>
+      <c r="LM3" s="45"/>
+      <c r="LN3" s="45"/>
+      <c r="LO3" s="45"/>
+      <c r="LP3" s="45"/>
+      <c r="LQ3" s="45"/>
+      <c r="LR3" s="45"/>
+      <c r="LS3" s="45"/>
+      <c r="LT3" s="45"/>
+      <c r="LU3" s="45"/>
+      <c r="LV3" s="45"/>
+      <c r="LW3" s="45"/>
+      <c r="LX3" s="45"/>
+      <c r="LY3" s="45"/>
+      <c r="LZ3" s="45"/>
+      <c r="MA3" s="45"/>
+      <c r="MB3" s="45"/>
+      <c r="MC3" s="45"/>
+      <c r="MD3" s="45"/>
+      <c r="ME3" s="45"/>
+      <c r="MF3" s="45"/>
+      <c r="MG3" s="45"/>
+      <c r="MH3" s="45"/>
+      <c r="MI3" s="45"/>
+      <c r="MJ3" s="45"/>
+      <c r="MK3" s="45"/>
+      <c r="ML3" s="45"/>
+      <c r="MM3" s="45"/>
+      <c r="MN3" s="45"/>
+      <c r="MO3" s="45"/>
+      <c r="MP3" s="45"/>
+      <c r="MQ3" s="45"/>
+      <c r="MR3" s="45"/>
+      <c r="MS3" s="45"/>
+      <c r="MT3" s="45"/>
+      <c r="MU3" s="45"/>
+      <c r="MV3" s="45"/>
+      <c r="MW3" s="45"/>
+      <c r="MX3" s="45"/>
+      <c r="MY3" s="45"/>
+      <c r="MZ3" s="45"/>
+      <c r="NA3" s="45"/>
+      <c r="NB3" s="45"/>
+      <c r="NC3" s="45"/>
+      <c r="ND3" s="45"/>
+      <c r="NE3" s="45"/>
+      <c r="NF3" s="45"/>
+      <c r="NG3" s="45"/>
+      <c r="NH3" s="45"/>
+      <c r="NI3" s="46"/>
     </row>
-    <row r="4" spans="1:373">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
@@ -4056,398 +4056,398 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:373" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57" t="s">
+    <row r="5" spans="1:373" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="57"/>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="59" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
-      <c r="CJ5" s="59"/>
-      <c r="CK5" s="59"/>
-      <c r="CL5" s="59"/>
-      <c r="CM5" s="59"/>
-      <c r="CN5" s="59"/>
-      <c r="CO5" s="59"/>
-      <c r="CP5" s="59"/>
-      <c r="CQ5" s="59"/>
-      <c r="CR5" s="59"/>
-      <c r="CS5" s="59"/>
-      <c r="CT5" s="59"/>
-      <c r="CU5" s="59"/>
-      <c r="CV5" s="59"/>
-      <c r="CW5" s="59"/>
-      <c r="CX5" s="59"/>
-      <c r="CY5" s="59"/>
-      <c r="CZ5" s="59"/>
-      <c r="DA5" s="59"/>
-      <c r="DB5" s="59"/>
-      <c r="DC5" s="59"/>
-      <c r="DD5" s="60"/>
-      <c r="DE5" s="61" t="s">
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="68"/>
+      <c r="BQ5" s="68"/>
+      <c r="BR5" s="68"/>
+      <c r="BS5" s="68"/>
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="68"/>
+      <c r="BV5" s="68"/>
+      <c r="BW5" s="68"/>
+      <c r="BX5" s="68"/>
+      <c r="BY5" s="68"/>
+      <c r="BZ5" s="68"/>
+      <c r="CA5" s="68"/>
+      <c r="CB5" s="68"/>
+      <c r="CC5" s="68"/>
+      <c r="CD5" s="68"/>
+      <c r="CE5" s="68"/>
+      <c r="CF5" s="68"/>
+      <c r="CG5" s="68"/>
+      <c r="CH5" s="68"/>
+      <c r="CI5" s="68"/>
+      <c r="CJ5" s="68"/>
+      <c r="CK5" s="68"/>
+      <c r="CL5" s="68"/>
+      <c r="CM5" s="68"/>
+      <c r="CN5" s="68"/>
+      <c r="CO5" s="68"/>
+      <c r="CP5" s="68"/>
+      <c r="CQ5" s="68"/>
+      <c r="CR5" s="68"/>
+      <c r="CS5" s="68"/>
+      <c r="CT5" s="68"/>
+      <c r="CU5" s="68"/>
+      <c r="CV5" s="68"/>
+      <c r="CW5" s="68"/>
+      <c r="CX5" s="68"/>
+      <c r="CY5" s="68"/>
+      <c r="CZ5" s="68"/>
+      <c r="DA5" s="68"/>
+      <c r="DB5" s="68"/>
+      <c r="DC5" s="68"/>
+      <c r="DD5" s="69"/>
+      <c r="DE5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="DF5" s="61"/>
-      <c r="DG5" s="61"/>
-      <c r="DH5" s="61"/>
-      <c r="DI5" s="61"/>
-      <c r="DJ5" s="61"/>
-      <c r="DK5" s="61"/>
-      <c r="DL5" s="61"/>
-      <c r="DM5" s="61"/>
-      <c r="DN5" s="61"/>
-      <c r="DO5" s="61"/>
-      <c r="DP5" s="61"/>
-      <c r="DQ5" s="61"/>
-      <c r="DR5" s="61"/>
-      <c r="DS5" s="61"/>
-      <c r="DT5" s="61"/>
-      <c r="DU5" s="61"/>
-      <c r="DV5" s="61"/>
-      <c r="DW5" s="61"/>
-      <c r="DX5" s="61"/>
-      <c r="DY5" s="61"/>
-      <c r="DZ5" s="61"/>
-      <c r="EA5" s="61"/>
-      <c r="EB5" s="61"/>
-      <c r="EC5" s="61"/>
-      <c r="ED5" s="61"/>
-      <c r="EE5" s="61"/>
-      <c r="EF5" s="61"/>
-      <c r="EG5" s="61"/>
-      <c r="EH5" s="61"/>
-      <c r="EI5" s="61"/>
-      <c r="EJ5" s="61"/>
-      <c r="EK5" s="61"/>
-      <c r="EL5" s="61"/>
-      <c r="EM5" s="61"/>
-      <c r="EN5" s="61"/>
-      <c r="EO5" s="61"/>
-      <c r="EP5" s="61"/>
-      <c r="EQ5" s="61"/>
-      <c r="ER5" s="61"/>
-      <c r="ES5" s="61"/>
-      <c r="ET5" s="61"/>
-      <c r="EU5" s="61"/>
-      <c r="EV5" s="61"/>
-      <c r="EW5" s="61"/>
-      <c r="EX5" s="61"/>
-      <c r="EY5" s="61"/>
-      <c r="EZ5" s="61"/>
-      <c r="FA5" s="61"/>
-      <c r="FB5" s="61"/>
-      <c r="FC5" s="61"/>
-      <c r="FD5" s="61"/>
-      <c r="FE5" s="62"/>
-      <c r="FF5" s="63" t="s">
+      <c r="DF5" s="70"/>
+      <c r="DG5" s="70"/>
+      <c r="DH5" s="70"/>
+      <c r="DI5" s="70"/>
+      <c r="DJ5" s="70"/>
+      <c r="DK5" s="70"/>
+      <c r="DL5" s="70"/>
+      <c r="DM5" s="70"/>
+      <c r="DN5" s="70"/>
+      <c r="DO5" s="70"/>
+      <c r="DP5" s="70"/>
+      <c r="DQ5" s="70"/>
+      <c r="DR5" s="70"/>
+      <c r="DS5" s="70"/>
+      <c r="DT5" s="70"/>
+      <c r="DU5" s="70"/>
+      <c r="DV5" s="70"/>
+      <c r="DW5" s="70"/>
+      <c r="DX5" s="70"/>
+      <c r="DY5" s="70"/>
+      <c r="DZ5" s="70"/>
+      <c r="EA5" s="70"/>
+      <c r="EB5" s="70"/>
+      <c r="EC5" s="70"/>
+      <c r="ED5" s="70"/>
+      <c r="EE5" s="70"/>
+      <c r="EF5" s="70"/>
+      <c r="EG5" s="70"/>
+      <c r="EH5" s="70"/>
+      <c r="EI5" s="70"/>
+      <c r="EJ5" s="70"/>
+      <c r="EK5" s="70"/>
+      <c r="EL5" s="70"/>
+      <c r="EM5" s="70"/>
+      <c r="EN5" s="70"/>
+      <c r="EO5" s="70"/>
+      <c r="EP5" s="70"/>
+      <c r="EQ5" s="70"/>
+      <c r="ER5" s="70"/>
+      <c r="ES5" s="70"/>
+      <c r="ET5" s="70"/>
+      <c r="EU5" s="70"/>
+      <c r="EV5" s="70"/>
+      <c r="EW5" s="70"/>
+      <c r="EX5" s="70"/>
+      <c r="EY5" s="70"/>
+      <c r="EZ5" s="70"/>
+      <c r="FA5" s="70"/>
+      <c r="FB5" s="70"/>
+      <c r="FC5" s="70"/>
+      <c r="FD5" s="70"/>
+      <c r="FE5" s="71"/>
+      <c r="FF5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="FG5" s="63"/>
-      <c r="FH5" s="63"/>
-      <c r="FI5" s="63"/>
-      <c r="FJ5" s="63"/>
-      <c r="FK5" s="63"/>
-      <c r="FL5" s="63"/>
-      <c r="FM5" s="63"/>
-      <c r="FN5" s="63"/>
-      <c r="FO5" s="63"/>
-      <c r="FP5" s="63"/>
-      <c r="FQ5" s="63"/>
-      <c r="FR5" s="63"/>
-      <c r="FS5" s="63"/>
-      <c r="FT5" s="63"/>
-      <c r="FU5" s="63"/>
-      <c r="FV5" s="63"/>
-      <c r="FW5" s="63"/>
-      <c r="FX5" s="63"/>
-      <c r="FY5" s="63"/>
-      <c r="FZ5" s="63"/>
-      <c r="GA5" s="63"/>
-      <c r="GB5" s="63"/>
-      <c r="GC5" s="63"/>
-      <c r="GD5" s="63"/>
-      <c r="GE5" s="63"/>
-      <c r="GF5" s="63"/>
-      <c r="GG5" s="63"/>
-      <c r="GH5" s="63"/>
-      <c r="GI5" s="63"/>
-      <c r="GJ5" s="63"/>
-      <c r="GK5" s="63"/>
-      <c r="GL5" s="63"/>
-      <c r="GM5" s="63"/>
-      <c r="GN5" s="63"/>
-      <c r="GO5" s="63"/>
-      <c r="GP5" s="63"/>
-      <c r="GQ5" s="63"/>
-      <c r="GR5" s="63"/>
-      <c r="GS5" s="63"/>
-      <c r="GT5" s="63"/>
-      <c r="GU5" s="63"/>
-      <c r="GV5" s="63"/>
-      <c r="GW5" s="63"/>
-      <c r="GX5" s="63"/>
-      <c r="GY5" s="63"/>
-      <c r="GZ5" s="63"/>
-      <c r="HA5" s="63"/>
-      <c r="HB5" s="63"/>
-      <c r="HC5" s="63"/>
-      <c r="HD5" s="63"/>
-      <c r="HE5" s="63"/>
-      <c r="HF5" s="64"/>
-      <c r="HG5" s="48" t="s">
+      <c r="FG5" s="72"/>
+      <c r="FH5" s="72"/>
+      <c r="FI5" s="72"/>
+      <c r="FJ5" s="72"/>
+      <c r="FK5" s="72"/>
+      <c r="FL5" s="72"/>
+      <c r="FM5" s="72"/>
+      <c r="FN5" s="72"/>
+      <c r="FO5" s="72"/>
+      <c r="FP5" s="72"/>
+      <c r="FQ5" s="72"/>
+      <c r="FR5" s="72"/>
+      <c r="FS5" s="72"/>
+      <c r="FT5" s="72"/>
+      <c r="FU5" s="72"/>
+      <c r="FV5" s="72"/>
+      <c r="FW5" s="72"/>
+      <c r="FX5" s="72"/>
+      <c r="FY5" s="72"/>
+      <c r="FZ5" s="72"/>
+      <c r="GA5" s="72"/>
+      <c r="GB5" s="72"/>
+      <c r="GC5" s="72"/>
+      <c r="GD5" s="72"/>
+      <c r="GE5" s="72"/>
+      <c r="GF5" s="72"/>
+      <c r="GG5" s="72"/>
+      <c r="GH5" s="72"/>
+      <c r="GI5" s="72"/>
+      <c r="GJ5" s="72"/>
+      <c r="GK5" s="72"/>
+      <c r="GL5" s="72"/>
+      <c r="GM5" s="72"/>
+      <c r="GN5" s="72"/>
+      <c r="GO5" s="72"/>
+      <c r="GP5" s="72"/>
+      <c r="GQ5" s="72"/>
+      <c r="GR5" s="72"/>
+      <c r="GS5" s="72"/>
+      <c r="GT5" s="72"/>
+      <c r="GU5" s="72"/>
+      <c r="GV5" s="72"/>
+      <c r="GW5" s="72"/>
+      <c r="GX5" s="72"/>
+      <c r="GY5" s="72"/>
+      <c r="GZ5" s="72"/>
+      <c r="HA5" s="72"/>
+      <c r="HB5" s="72"/>
+      <c r="HC5" s="72"/>
+      <c r="HD5" s="72"/>
+      <c r="HE5" s="72"/>
+      <c r="HF5" s="73"/>
+      <c r="HG5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="HH5" s="48"/>
-      <c r="HI5" s="48"/>
-      <c r="HJ5" s="48"/>
-      <c r="HK5" s="48"/>
-      <c r="HL5" s="48"/>
-      <c r="HM5" s="48"/>
-      <c r="HN5" s="48"/>
-      <c r="HO5" s="48"/>
-      <c r="HP5" s="48"/>
-      <c r="HQ5" s="48"/>
-      <c r="HR5" s="48"/>
-      <c r="HS5" s="48"/>
-      <c r="HT5" s="48"/>
-      <c r="HU5" s="48"/>
-      <c r="HV5" s="48"/>
-      <c r="HW5" s="48"/>
-      <c r="HX5" s="48"/>
-      <c r="HY5" s="48"/>
-      <c r="HZ5" s="48"/>
-      <c r="IA5" s="48"/>
-      <c r="IB5" s="48"/>
-      <c r="IC5" s="48"/>
-      <c r="ID5" s="48"/>
-      <c r="IE5" s="48"/>
-      <c r="IF5" s="48"/>
-      <c r="IG5" s="48"/>
-      <c r="IH5" s="48"/>
-      <c r="II5" s="48"/>
-      <c r="IJ5" s="48"/>
-      <c r="IK5" s="48"/>
-      <c r="IL5" s="48"/>
-      <c r="IM5" s="48"/>
-      <c r="IN5" s="48"/>
-      <c r="IO5" s="48"/>
-      <c r="IP5" s="48"/>
-      <c r="IQ5" s="48"/>
-      <c r="IR5" s="48"/>
-      <c r="IS5" s="48"/>
-      <c r="IT5" s="48"/>
-      <c r="IU5" s="48"/>
-      <c r="IV5" s="48"/>
-      <c r="IW5" s="48"/>
-      <c r="IX5" s="48"/>
-      <c r="IY5" s="48"/>
-      <c r="IZ5" s="48"/>
-      <c r="JA5" s="48"/>
-      <c r="JB5" s="48"/>
-      <c r="JC5" s="48"/>
-      <c r="JD5" s="48"/>
-      <c r="JE5" s="48"/>
-      <c r="JF5" s="48"/>
-      <c r="JG5" s="49"/>
-      <c r="JH5" s="50" t="s">
+      <c r="HH5" s="60"/>
+      <c r="HI5" s="60"/>
+      <c r="HJ5" s="60"/>
+      <c r="HK5" s="60"/>
+      <c r="HL5" s="60"/>
+      <c r="HM5" s="60"/>
+      <c r="HN5" s="60"/>
+      <c r="HO5" s="60"/>
+      <c r="HP5" s="60"/>
+      <c r="HQ5" s="60"/>
+      <c r="HR5" s="60"/>
+      <c r="HS5" s="60"/>
+      <c r="HT5" s="60"/>
+      <c r="HU5" s="60"/>
+      <c r="HV5" s="60"/>
+      <c r="HW5" s="60"/>
+      <c r="HX5" s="60"/>
+      <c r="HY5" s="60"/>
+      <c r="HZ5" s="60"/>
+      <c r="IA5" s="60"/>
+      <c r="IB5" s="60"/>
+      <c r="IC5" s="60"/>
+      <c r="ID5" s="60"/>
+      <c r="IE5" s="60"/>
+      <c r="IF5" s="60"/>
+      <c r="IG5" s="60"/>
+      <c r="IH5" s="60"/>
+      <c r="II5" s="60"/>
+      <c r="IJ5" s="60"/>
+      <c r="IK5" s="60"/>
+      <c r="IL5" s="60"/>
+      <c r="IM5" s="60"/>
+      <c r="IN5" s="60"/>
+      <c r="IO5" s="60"/>
+      <c r="IP5" s="60"/>
+      <c r="IQ5" s="60"/>
+      <c r="IR5" s="60"/>
+      <c r="IS5" s="60"/>
+      <c r="IT5" s="60"/>
+      <c r="IU5" s="60"/>
+      <c r="IV5" s="60"/>
+      <c r="IW5" s="60"/>
+      <c r="IX5" s="60"/>
+      <c r="IY5" s="60"/>
+      <c r="IZ5" s="60"/>
+      <c r="JA5" s="60"/>
+      <c r="JB5" s="60"/>
+      <c r="JC5" s="60"/>
+      <c r="JD5" s="60"/>
+      <c r="JE5" s="60"/>
+      <c r="JF5" s="60"/>
+      <c r="JG5" s="61"/>
+      <c r="JH5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="JI5" s="63"/>
+      <c r="JJ5" s="63"/>
+      <c r="JK5" s="63"/>
+      <c r="JL5" s="63"/>
+      <c r="JM5" s="63"/>
+      <c r="JN5" s="63"/>
+      <c r="JO5" s="63"/>
+      <c r="JP5" s="63"/>
+      <c r="JQ5" s="63"/>
+      <c r="JR5" s="63"/>
+      <c r="JS5" s="63"/>
+      <c r="JT5" s="63"/>
+      <c r="JU5" s="63"/>
+      <c r="JV5" s="63"/>
+      <c r="JW5" s="63"/>
+      <c r="JX5" s="63"/>
+      <c r="JY5" s="63"/>
+      <c r="JZ5" s="63"/>
+      <c r="KA5" s="63"/>
+      <c r="KB5" s="63"/>
+      <c r="KC5" s="63"/>
+      <c r="KD5" s="63"/>
+      <c r="KE5" s="63"/>
+      <c r="KF5" s="63"/>
+      <c r="KG5" s="63"/>
+      <c r="KH5" s="63"/>
+      <c r="KI5" s="63"/>
+      <c r="KJ5" s="63"/>
+      <c r="KK5" s="63"/>
+      <c r="KL5" s="63"/>
+      <c r="KM5" s="63"/>
+      <c r="KN5" s="63"/>
+      <c r="KO5" s="63"/>
+      <c r="KP5" s="63"/>
+      <c r="KQ5" s="63"/>
+      <c r="KR5" s="63"/>
+      <c r="KS5" s="63"/>
+      <c r="KT5" s="63"/>
+      <c r="KU5" s="63"/>
+      <c r="KV5" s="63"/>
+      <c r="KW5" s="63"/>
+      <c r="KX5" s="63"/>
+      <c r="KY5" s="63"/>
+      <c r="KZ5" s="63"/>
+      <c r="LA5" s="63"/>
+      <c r="LB5" s="63"/>
+      <c r="LC5" s="63"/>
+      <c r="LD5" s="63"/>
+      <c r="LE5" s="63"/>
+      <c r="LF5" s="63"/>
+      <c r="LG5" s="63"/>
+      <c r="LH5" s="64"/>
+      <c r="LI5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="JI5" s="50"/>
-      <c r="JJ5" s="50"/>
-      <c r="JK5" s="50"/>
-      <c r="JL5" s="50"/>
-      <c r="JM5" s="50"/>
-      <c r="JN5" s="50"/>
-      <c r="JO5" s="50"/>
-      <c r="JP5" s="50"/>
-      <c r="JQ5" s="50"/>
-      <c r="JR5" s="50"/>
-      <c r="JS5" s="50"/>
-      <c r="JT5" s="50"/>
-      <c r="JU5" s="50"/>
-      <c r="JV5" s="50"/>
-      <c r="JW5" s="50"/>
-      <c r="JX5" s="50"/>
-      <c r="JY5" s="50"/>
-      <c r="JZ5" s="50"/>
-      <c r="KA5" s="50"/>
-      <c r="KB5" s="50"/>
-      <c r="KC5" s="50"/>
-      <c r="KD5" s="50"/>
-      <c r="KE5" s="50"/>
-      <c r="KF5" s="50"/>
-      <c r="KG5" s="50"/>
-      <c r="KH5" s="50"/>
-      <c r="KI5" s="50"/>
-      <c r="KJ5" s="50"/>
-      <c r="KK5" s="50"/>
-      <c r="KL5" s="50"/>
-      <c r="KM5" s="50"/>
-      <c r="KN5" s="50"/>
-      <c r="KO5" s="50"/>
-      <c r="KP5" s="50"/>
-      <c r="KQ5" s="50"/>
-      <c r="KR5" s="50"/>
-      <c r="KS5" s="50"/>
-      <c r="KT5" s="50"/>
-      <c r="KU5" s="50"/>
-      <c r="KV5" s="50"/>
-      <c r="KW5" s="50"/>
-      <c r="KX5" s="50"/>
-      <c r="KY5" s="50"/>
-      <c r="KZ5" s="50"/>
-      <c r="LA5" s="50"/>
-      <c r="LB5" s="50"/>
-      <c r="LC5" s="50"/>
-      <c r="LD5" s="50"/>
-      <c r="LE5" s="50"/>
-      <c r="LF5" s="50"/>
-      <c r="LG5" s="50"/>
-      <c r="LH5" s="51"/>
-      <c r="LI5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="LJ5" s="52"/>
-      <c r="LK5" s="52"/>
-      <c r="LL5" s="52"/>
-      <c r="LM5" s="52"/>
-      <c r="LN5" s="52"/>
-      <c r="LO5" s="52"/>
-      <c r="LP5" s="52"/>
-      <c r="LQ5" s="52"/>
-      <c r="LR5" s="52"/>
-      <c r="LS5" s="52"/>
-      <c r="LT5" s="52"/>
-      <c r="LU5" s="52"/>
-      <c r="LV5" s="52"/>
-      <c r="LW5" s="52"/>
-      <c r="LX5" s="52"/>
-      <c r="LY5" s="52"/>
-      <c r="LZ5" s="52"/>
-      <c r="MA5" s="52"/>
-      <c r="MB5" s="52"/>
-      <c r="MC5" s="52"/>
-      <c r="MD5" s="52"/>
-      <c r="ME5" s="52"/>
-      <c r="MF5" s="52"/>
-      <c r="MG5" s="52"/>
-      <c r="MH5" s="52"/>
-      <c r="MI5" s="52"/>
-      <c r="MJ5" s="52"/>
-      <c r="MK5" s="52"/>
-      <c r="ML5" s="52"/>
-      <c r="MM5" s="52"/>
-      <c r="MN5" s="52"/>
-      <c r="MO5" s="52"/>
-      <c r="MP5" s="52"/>
-      <c r="MQ5" s="52"/>
-      <c r="MR5" s="52"/>
-      <c r="MS5" s="52"/>
-      <c r="MT5" s="52"/>
-      <c r="MU5" s="52"/>
-      <c r="MV5" s="52"/>
-      <c r="MW5" s="52"/>
-      <c r="MX5" s="52"/>
-      <c r="MY5" s="52"/>
-      <c r="MZ5" s="52"/>
-      <c r="NA5" s="52"/>
-      <c r="NB5" s="52"/>
-      <c r="NC5" s="52"/>
-      <c r="ND5" s="52"/>
-      <c r="NE5" s="52"/>
-      <c r="NF5" s="52"/>
-      <c r="NG5" s="52"/>
-      <c r="NH5" s="52"/>
-      <c r="NI5" s="53"/>
+      <c r="LJ5" s="45"/>
+      <c r="LK5" s="45"/>
+      <c r="LL5" s="45"/>
+      <c r="LM5" s="45"/>
+      <c r="LN5" s="45"/>
+      <c r="LO5" s="45"/>
+      <c r="LP5" s="45"/>
+      <c r="LQ5" s="45"/>
+      <c r="LR5" s="45"/>
+      <c r="LS5" s="45"/>
+      <c r="LT5" s="45"/>
+      <c r="LU5" s="45"/>
+      <c r="LV5" s="45"/>
+      <c r="LW5" s="45"/>
+      <c r="LX5" s="45"/>
+      <c r="LY5" s="45"/>
+      <c r="LZ5" s="45"/>
+      <c r="MA5" s="45"/>
+      <c r="MB5" s="45"/>
+      <c r="MC5" s="45"/>
+      <c r="MD5" s="45"/>
+      <c r="ME5" s="45"/>
+      <c r="MF5" s="45"/>
+      <c r="MG5" s="45"/>
+      <c r="MH5" s="45"/>
+      <c r="MI5" s="45"/>
+      <c r="MJ5" s="45"/>
+      <c r="MK5" s="45"/>
+      <c r="ML5" s="45"/>
+      <c r="MM5" s="45"/>
+      <c r="MN5" s="45"/>
+      <c r="MO5" s="45"/>
+      <c r="MP5" s="45"/>
+      <c r="MQ5" s="45"/>
+      <c r="MR5" s="45"/>
+      <c r="MS5" s="45"/>
+      <c r="MT5" s="45"/>
+      <c r="MU5" s="45"/>
+      <c r="MV5" s="45"/>
+      <c r="MW5" s="45"/>
+      <c r="MX5" s="45"/>
+      <c r="MY5" s="45"/>
+      <c r="MZ5" s="45"/>
+      <c r="NA5" s="45"/>
+      <c r="NB5" s="45"/>
+      <c r="NC5" s="45"/>
+      <c r="ND5" s="45"/>
+      <c r="NE5" s="45"/>
+      <c r="NF5" s="45"/>
+      <c r="NG5" s="45"/>
+      <c r="NH5" s="45"/>
+      <c r="NI5" s="46"/>
     </row>
-    <row r="6" spans="1:373" s="28" customFormat="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+    <row r="6" spans="1:373" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="29">
         <v>1</v>
       </c>
@@ -5562,8 +5562,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:373">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -6555,8 +6555,8 @@
       <c r="NH7" s="44"/>
       <c r="NI7" s="44"/>
     </row>
-    <row r="8" spans="1:373">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
       <c r="B8" s="43" t="s">
         <v>11</v>
       </c>
@@ -7546,8 +7546,8 @@
       <c r="NH8" s="44"/>
       <c r="NI8" s="44"/>
     </row>
-    <row r="9" spans="1:373">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
       <c r="B9" s="43" t="s">
         <v>12</v>
       </c>
@@ -8537,8 +8537,8 @@
       <c r="NH9" s="44"/>
       <c r="NI9" s="44"/>
     </row>
-    <row r="10" spans="1:373">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A10" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -9530,8 +9530,8 @@
       <c r="NH10" s="44"/>
       <c r="NI10" s="44"/>
     </row>
-    <row r="11" spans="1:373">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
       <c r="B11" s="43" t="s">
         <v>11</v>
       </c>
@@ -10521,8 +10521,8 @@
       <c r="NH11" s="44"/>
       <c r="NI11" s="44"/>
     </row>
-    <row r="12" spans="1:373">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
       <c r="B12" s="43" t="s">
         <v>12</v>
       </c>
@@ -11512,8 +11512,8 @@
       <c r="NH12" s="44"/>
       <c r="NI12" s="44"/>
     </row>
-    <row r="13" spans="1:373">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A13" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -12505,8 +12505,8 @@
       <c r="NH13" s="44"/>
       <c r="NI13" s="44"/>
     </row>
-    <row r="14" spans="1:373">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A14" s="75"/>
       <c r="B14" s="43" t="s">
         <v>11</v>
       </c>
@@ -13496,8 +13496,8 @@
       <c r="NH14" s="44"/>
       <c r="NI14" s="44"/>
     </row>
-    <row r="15" spans="1:373">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A15" s="76"/>
       <c r="B15" s="43" t="s">
         <v>12</v>
       </c>
@@ -14487,8 +14487,8 @@
       <c r="NH15" s="44"/>
       <c r="NI15" s="44"/>
     </row>
-    <row r="16" spans="1:373">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A16" s="74" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -15480,8 +15480,8 @@
       <c r="NH16" s="44"/>
       <c r="NI16" s="44"/>
     </row>
-    <row r="17" spans="1:373">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A17" s="75"/>
       <c r="B17" s="43" t="s">
         <v>11</v>
       </c>
@@ -16471,8 +16471,8 @@
       <c r="NH17" s="44"/>
       <c r="NI17" s="44"/>
     </row>
-    <row r="18" spans="1:373">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A18" s="76"/>
       <c r="B18" s="43" t="s">
         <v>12</v>
       </c>
@@ -17462,8 +17462,8 @@
       <c r="NH18" s="44"/>
       <c r="NI18" s="44"/>
     </row>
-    <row r="19" spans="1:373">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A19" s="74"/>
       <c r="B19" s="43" t="s">
         <v>10</v>
       </c>
@@ -17839,8 +17839,8 @@
       <c r="NH19" s="44"/>
       <c r="NI19" s="44"/>
     </row>
-    <row r="20" spans="1:373">
-      <c r="A20" s="46"/>
+    <row r="20" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A20" s="75"/>
       <c r="B20" s="43" t="s">
         <v>11</v>
       </c>
@@ -18216,8 +18216,8 @@
       <c r="NH20" s="44"/>
       <c r="NI20" s="44"/>
     </row>
-    <row r="21" spans="1:373">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A21" s="76"/>
       <c r="B21" s="43" t="s">
         <v>12</v>
       </c>
@@ -18593,8 +18593,8 @@
       <c r="NH21" s="44"/>
       <c r="NI21" s="44"/>
     </row>
-    <row r="22" spans="1:373">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A22" s="74"/>
       <c r="B22" s="43" t="s">
         <v>10</v>
       </c>
@@ -18970,8 +18970,8 @@
       <c r="NH22" s="44"/>
       <c r="NI22" s="44"/>
     </row>
-    <row r="23" spans="1:373">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A23" s="75"/>
       <c r="B23" s="43" t="s">
         <v>11</v>
       </c>
@@ -19347,8 +19347,8 @@
       <c r="NH23" s="44"/>
       <c r="NI23" s="44"/>
     </row>
-    <row r="24" spans="1:373">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A24" s="76"/>
       <c r="B24" s="43" t="s">
         <v>12</v>
       </c>
@@ -19724,8 +19724,8 @@
       <c r="NH24" s="44"/>
       <c r="NI24" s="44"/>
     </row>
-    <row r="25" spans="1:373">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
       <c r="B25" s="43" t="s">
         <v>10</v>
       </c>
@@ -20101,8 +20101,8 @@
       <c r="NH25" s="44"/>
       <c r="NI25" s="44"/>
     </row>
-    <row r="26" spans="1:373">
-      <c r="A26" s="46"/>
+    <row r="26" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A26" s="75"/>
       <c r="B26" s="43" t="s">
         <v>11</v>
       </c>
@@ -20478,8 +20478,8 @@
       <c r="NH26" s="44"/>
       <c r="NI26" s="44"/>
     </row>
-    <row r="27" spans="1:373">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A27" s="76"/>
       <c r="B27" s="43" t="s">
         <v>12</v>
       </c>
@@ -20855,8 +20855,8 @@
       <c r="NH27" s="44"/>
       <c r="NI27" s="44"/>
     </row>
-    <row r="28" spans="1:373">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A28" s="74"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
@@ -21232,8 +21232,8 @@
       <c r="NH28" s="44"/>
       <c r="NI28" s="44"/>
     </row>
-    <row r="29" spans="1:373">
-      <c r="A29" s="46"/>
+    <row r="29" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A29" s="75"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
@@ -21609,8 +21609,8 @@
       <c r="NH29" s="44"/>
       <c r="NI29" s="44"/>
     </row>
-    <row r="30" spans="1:373">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A30" s="76"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
@@ -21986,8 +21986,8 @@
       <c r="NH30" s="44"/>
       <c r="NI30" s="44"/>
     </row>
-    <row r="31" spans="1:373">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A31" s="74"/>
       <c r="B31" s="43" t="s">
         <v>10</v>
       </c>
@@ -22363,8 +22363,8 @@
       <c r="NH31" s="44"/>
       <c r="NI31" s="44"/>
     </row>
-    <row r="32" spans="1:373">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A32" s="75"/>
       <c r="B32" s="43" t="s">
         <v>11</v>
       </c>
@@ -22740,8 +22740,8 @@
       <c r="NH32" s="44"/>
       <c r="NI32" s="44"/>
     </row>
-    <row r="33" spans="1:373">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A33" s="76"/>
       <c r="B33" s="43" t="s">
         <v>12</v>
       </c>
@@ -23117,8 +23117,8 @@
       <c r="NH33" s="44"/>
       <c r="NI33" s="44"/>
     </row>
-    <row r="34" spans="1:373">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A34" s="74"/>
       <c r="B34" s="43" t="s">
         <v>10</v>
       </c>
@@ -23494,8 +23494,8 @@
       <c r="NH34" s="44"/>
       <c r="NI34" s="44"/>
     </row>
-    <row r="35" spans="1:373">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A35" s="75"/>
       <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
@@ -23871,8 +23871,8 @@
       <c r="NH35" s="44"/>
       <c r="NI35" s="44"/>
     </row>
-    <row r="36" spans="1:373">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A36" s="76"/>
       <c r="B36" s="43" t="s">
         <v>12</v>
       </c>
@@ -24248,8 +24248,8 @@
       <c r="NH36" s="44"/>
       <c r="NI36" s="44"/>
     </row>
-    <row r="37" spans="1:373">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A37" s="74"/>
       <c r="B37" s="43" t="s">
         <v>10</v>
       </c>
@@ -24625,8 +24625,8 @@
       <c r="NH37" s="44"/>
       <c r="NI37" s="44"/>
     </row>
-    <row r="38" spans="1:373">
-      <c r="A38" s="46"/>
+    <row r="38" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A38" s="75"/>
       <c r="B38" s="43" t="s">
         <v>11</v>
       </c>
@@ -25002,8 +25002,8 @@
       <c r="NH38" s="44"/>
       <c r="NI38" s="44"/>
     </row>
-    <row r="39" spans="1:373">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A39" s="76"/>
       <c r="B39" s="43" t="s">
         <v>12</v>
       </c>
@@ -25379,8 +25379,8 @@
       <c r="NH39" s="44"/>
       <c r="NI39" s="44"/>
     </row>
-    <row r="40" spans="1:373">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A40" s="74"/>
       <c r="B40" s="43" t="s">
         <v>10</v>
       </c>
@@ -25756,8 +25756,8 @@
       <c r="NH40" s="44"/>
       <c r="NI40" s="44"/>
     </row>
-    <row r="41" spans="1:373">
-      <c r="A41" s="46"/>
+    <row r="41" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A41" s="75"/>
       <c r="B41" s="43" t="s">
         <v>11</v>
       </c>
@@ -26133,8 +26133,8 @@
       <c r="NH41" s="44"/>
       <c r="NI41" s="44"/>
     </row>
-    <row r="42" spans="1:373">
-      <c r="A42" s="47"/>
+    <row r="42" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A42" s="76"/>
       <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
@@ -26510,8 +26510,8 @@
       <c r="NH42" s="44"/>
       <c r="NI42" s="44"/>
     </row>
-    <row r="43" spans="1:373">
-      <c r="A43" s="45"/>
+    <row r="43" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
       <c r="B43" s="43" t="s">
         <v>10</v>
       </c>
@@ -26887,8 +26887,8 @@
       <c r="NH43" s="44"/>
       <c r="NI43" s="44"/>
     </row>
-    <row r="44" spans="1:373">
-      <c r="A44" s="46"/>
+    <row r="44" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A44" s="75"/>
       <c r="B44" s="43" t="s">
         <v>11</v>
       </c>
@@ -27264,8 +27264,8 @@
       <c r="NH44" s="44"/>
       <c r="NI44" s="44"/>
     </row>
-    <row r="45" spans="1:373">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A45" s="76"/>
       <c r="B45" s="43" t="s">
         <v>12</v>
       </c>
@@ -27641,8 +27641,8 @@
       <c r="NH45" s="44"/>
       <c r="NI45" s="44"/>
     </row>
-    <row r="46" spans="1:373">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A46" s="74"/>
       <c r="B46" s="43" t="s">
         <v>10</v>
       </c>
@@ -28018,8 +28018,8 @@
       <c r="NH46" s="44"/>
       <c r="NI46" s="44"/>
     </row>
-    <row r="47" spans="1:373">
-      <c r="A47" s="46"/>
+    <row r="47" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A47" s="75"/>
       <c r="B47" s="43" t="s">
         <v>11</v>
       </c>
@@ -28395,8 +28395,8 @@
       <c r="NH47" s="44"/>
       <c r="NI47" s="44"/>
     </row>
-    <row r="48" spans="1:373">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A48" s="76"/>
       <c r="B48" s="43" t="s">
         <v>12</v>
       </c>
@@ -28772,8 +28772,8 @@
       <c r="NH48" s="44"/>
       <c r="NI48" s="44"/>
     </row>
-    <row r="49" spans="1:373">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A49" s="74"/>
       <c r="B49" s="43" t="s">
         <v>10</v>
       </c>
@@ -29149,8 +29149,8 @@
       <c r="NH49" s="44"/>
       <c r="NI49" s="44"/>
     </row>
-    <row r="50" spans="1:373">
-      <c r="A50" s="46"/>
+    <row r="50" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A50" s="75"/>
       <c r="B50" s="43" t="s">
         <v>11</v>
       </c>
@@ -29526,8 +29526,8 @@
       <c r="NH50" s="44"/>
       <c r="NI50" s="44"/>
     </row>
-    <row r="51" spans="1:373">
-      <c r="A51" s="47"/>
+    <row r="51" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A51" s="76"/>
       <c r="B51" s="43" t="s">
         <v>12</v>
       </c>
@@ -29903,8 +29903,8 @@
       <c r="NH51" s="44"/>
       <c r="NI51" s="44"/>
     </row>
-    <row r="52" spans="1:373">
-      <c r="A52" s="45"/>
+    <row r="52" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A52" s="74"/>
       <c r="B52" s="43" t="s">
         <v>10</v>
       </c>
@@ -30280,8 +30280,8 @@
       <c r="NH52" s="44"/>
       <c r="NI52" s="44"/>
     </row>
-    <row r="53" spans="1:373">
-      <c r="A53" s="46"/>
+    <row r="53" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A53" s="75"/>
       <c r="B53" s="43" t="s">
         <v>11</v>
       </c>
@@ -30657,8 +30657,8 @@
       <c r="NH53" s="44"/>
       <c r="NI53" s="44"/>
     </row>
-    <row r="54" spans="1:373">
-      <c r="A54" s="47"/>
+    <row r="54" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A54" s="76"/>
       <c r="B54" s="43" t="s">
         <v>12</v>
       </c>
@@ -31034,8 +31034,8 @@
       <c r="NH54" s="44"/>
       <c r="NI54" s="44"/>
     </row>
-    <row r="55" spans="1:373">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A55" s="74"/>
       <c r="B55" s="43" t="s">
         <v>10</v>
       </c>
@@ -31411,8 +31411,8 @@
       <c r="NH55" s="44"/>
       <c r="NI55" s="44"/>
     </row>
-    <row r="56" spans="1:373">
-      <c r="A56" s="46"/>
+    <row r="56" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A56" s="75"/>
       <c r="B56" s="43" t="s">
         <v>11</v>
       </c>
@@ -31788,8 +31788,8 @@
       <c r="NH56" s="44"/>
       <c r="NI56" s="44"/>
     </row>
-    <row r="57" spans="1:373">
-      <c r="A57" s="47"/>
+    <row r="57" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A57" s="76"/>
       <c r="B57" s="43" t="s">
         <v>12</v>
       </c>
@@ -32165,8 +32165,8 @@
       <c r="NH57" s="44"/>
       <c r="NI57" s="44"/>
     </row>
-    <row r="58" spans="1:373">
-      <c r="A58" s="45"/>
+    <row r="58" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A58" s="74"/>
       <c r="B58" s="43" t="s">
         <v>10</v>
       </c>
@@ -32542,8 +32542,8 @@
       <c r="NH58" s="44"/>
       <c r="NI58" s="44"/>
     </row>
-    <row r="59" spans="1:373">
-      <c r="A59" s="46"/>
+    <row r="59" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A59" s="75"/>
       <c r="B59" s="43" t="s">
         <v>11</v>
       </c>
@@ -32919,8 +32919,8 @@
       <c r="NH59" s="44"/>
       <c r="NI59" s="44"/>
     </row>
-    <row r="60" spans="1:373">
-      <c r="A60" s="47"/>
+    <row r="60" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A60" s="76"/>
       <c r="B60" s="43" t="s">
         <v>12</v>
       </c>
@@ -33296,8 +33296,8 @@
       <c r="NH60" s="44"/>
       <c r="NI60" s="44"/>
     </row>
-    <row r="61" spans="1:373">
-      <c r="A61" s="45"/>
+    <row r="61" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A61" s="74"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
@@ -33673,8 +33673,8 @@
       <c r="NH61" s="44"/>
       <c r="NI61" s="44"/>
     </row>
-    <row r="62" spans="1:373">
-      <c r="A62" s="46"/>
+    <row r="62" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A62" s="75"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
@@ -34050,8 +34050,8 @@
       <c r="NH62" s="44"/>
       <c r="NI62" s="44"/>
     </row>
-    <row r="63" spans="1:373">
-      <c r="A63" s="47"/>
+    <row r="63" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A63" s="76"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
@@ -34429,6 +34429,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="LI5:NI5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="DE5:FE5"/>
+    <mergeCell ref="FF5:HF5"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="HG1:JG1"/>
+    <mergeCell ref="JH1:LH1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C5:BC5"/>
+    <mergeCell ref="BD5:DD5"/>
+    <mergeCell ref="HG5:JG5"/>
+    <mergeCell ref="JH5:LH5"/>
     <mergeCell ref="LI1:NI1"/>
     <mergeCell ref="C3:BC3"/>
     <mergeCell ref="BD3:DD3"/>
@@ -34441,36 +34471,6 @@
     <mergeCell ref="BD1:DD1"/>
     <mergeCell ref="DE1:FE1"/>
     <mergeCell ref="FF1:HF1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="HG1:JG1"/>
-    <mergeCell ref="JH1:LH1"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C5:BC5"/>
-    <mergeCell ref="BD5:DD5"/>
-    <mergeCell ref="HG5:JG5"/>
-    <mergeCell ref="JH5:LH5"/>
-    <mergeCell ref="LI5:NI5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="DE5:FE5"/>
-    <mergeCell ref="FF5:HF5"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -34482,7 +34482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:NI63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34493,409 +34493,409 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="28"/>
     <col min="3" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:373" ht="15" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:373" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
-      <c r="CM1" s="59"/>
-      <c r="CN1" s="59"/>
-      <c r="CO1" s="59"/>
-      <c r="CP1" s="59"/>
-      <c r="CQ1" s="59"/>
-      <c r="CR1" s="59"/>
-      <c r="CS1" s="59"/>
-      <c r="CT1" s="59"/>
-      <c r="CU1" s="59"/>
-      <c r="CV1" s="59"/>
-      <c r="CW1" s="59"/>
-      <c r="CX1" s="59"/>
-      <c r="CY1" s="59"/>
-      <c r="CZ1" s="59"/>
-      <c r="DA1" s="59"/>
-      <c r="DB1" s="59"/>
-      <c r="DC1" s="59"/>
-      <c r="DD1" s="60"/>
-      <c r="DE1" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="61"/>
-      <c r="DH1" s="61"/>
-      <c r="DI1" s="61"/>
-      <c r="DJ1" s="61"/>
-      <c r="DK1" s="61"/>
-      <c r="DL1" s="61"/>
-      <c r="DM1" s="61"/>
-      <c r="DN1" s="61"/>
-      <c r="DO1" s="61"/>
-      <c r="DP1" s="61"/>
-      <c r="DQ1" s="61"/>
-      <c r="DR1" s="61"/>
-      <c r="DS1" s="61"/>
-      <c r="DT1" s="61"/>
-      <c r="DU1" s="61"/>
-      <c r="DV1" s="61"/>
-      <c r="DW1" s="61"/>
-      <c r="DX1" s="61"/>
-      <c r="DY1" s="61"/>
-      <c r="DZ1" s="61"/>
-      <c r="EA1" s="61"/>
-      <c r="EB1" s="61"/>
-      <c r="EC1" s="61"/>
-      <c r="ED1" s="61"/>
-      <c r="EE1" s="61"/>
-      <c r="EF1" s="61"/>
-      <c r="EG1" s="61"/>
-      <c r="EH1" s="61"/>
-      <c r="EI1" s="61"/>
-      <c r="EJ1" s="61"/>
-      <c r="EK1" s="61"/>
-      <c r="EL1" s="61"/>
-      <c r="EM1" s="61"/>
-      <c r="EN1" s="61"/>
-      <c r="EO1" s="61"/>
-      <c r="EP1" s="61"/>
-      <c r="EQ1" s="61"/>
-      <c r="ER1" s="61"/>
-      <c r="ES1" s="61"/>
-      <c r="ET1" s="61"/>
-      <c r="EU1" s="61"/>
-      <c r="EV1" s="61"/>
-      <c r="EW1" s="61"/>
-      <c r="EX1" s="61"/>
-      <c r="EY1" s="61"/>
-      <c r="EZ1" s="61"/>
-      <c r="FA1" s="61"/>
-      <c r="FB1" s="61"/>
-      <c r="FC1" s="61"/>
-      <c r="FD1" s="61"/>
-      <c r="FE1" s="62"/>
-      <c r="FF1" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="FG1" s="63"/>
-      <c r="FH1" s="63"/>
-      <c r="FI1" s="63"/>
-      <c r="FJ1" s="63"/>
-      <c r="FK1" s="63"/>
-      <c r="FL1" s="63"/>
-      <c r="FM1" s="63"/>
-      <c r="FN1" s="63"/>
-      <c r="FO1" s="63"/>
-      <c r="FP1" s="63"/>
-      <c r="FQ1" s="63"/>
-      <c r="FR1" s="63"/>
-      <c r="FS1" s="63"/>
-      <c r="FT1" s="63"/>
-      <c r="FU1" s="63"/>
-      <c r="FV1" s="63"/>
-      <c r="FW1" s="63"/>
-      <c r="FX1" s="63"/>
-      <c r="FY1" s="63"/>
-      <c r="FZ1" s="63"/>
-      <c r="GA1" s="63"/>
-      <c r="GB1" s="63"/>
-      <c r="GC1" s="63"/>
-      <c r="GD1" s="63"/>
-      <c r="GE1" s="63"/>
-      <c r="GF1" s="63"/>
-      <c r="GG1" s="63"/>
-      <c r="GH1" s="63"/>
-      <c r="GI1" s="63"/>
-      <c r="GJ1" s="63"/>
-      <c r="GK1" s="63"/>
-      <c r="GL1" s="63"/>
-      <c r="GM1" s="63"/>
-      <c r="GN1" s="63"/>
-      <c r="GO1" s="63"/>
-      <c r="GP1" s="63"/>
-      <c r="GQ1" s="63"/>
-      <c r="GR1" s="63"/>
-      <c r="GS1" s="63"/>
-      <c r="GT1" s="63"/>
-      <c r="GU1" s="63"/>
-      <c r="GV1" s="63"/>
-      <c r="GW1" s="63"/>
-      <c r="GX1" s="63"/>
-      <c r="GY1" s="63"/>
-      <c r="GZ1" s="63"/>
-      <c r="HA1" s="63"/>
-      <c r="HB1" s="63"/>
-      <c r="HC1" s="63"/>
-      <c r="HD1" s="63"/>
-      <c r="HE1" s="63"/>
-      <c r="HF1" s="64"/>
-      <c r="HG1" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="HH1" s="48"/>
-      <c r="HI1" s="48"/>
-      <c r="HJ1" s="48"/>
-      <c r="HK1" s="48"/>
-      <c r="HL1" s="48"/>
-      <c r="HM1" s="48"/>
-      <c r="HN1" s="48"/>
-      <c r="HO1" s="48"/>
-      <c r="HP1" s="48"/>
-      <c r="HQ1" s="48"/>
-      <c r="HR1" s="48"/>
-      <c r="HS1" s="48"/>
-      <c r="HT1" s="48"/>
-      <c r="HU1" s="48"/>
-      <c r="HV1" s="48"/>
-      <c r="HW1" s="48"/>
-      <c r="HX1" s="48"/>
-      <c r="HY1" s="48"/>
-      <c r="HZ1" s="48"/>
-      <c r="IA1" s="48"/>
-      <c r="IB1" s="48"/>
-      <c r="IC1" s="48"/>
-      <c r="ID1" s="48"/>
-      <c r="IE1" s="48"/>
-      <c r="IF1" s="48"/>
-      <c r="IG1" s="48"/>
-      <c r="IH1" s="48"/>
-      <c r="II1" s="48"/>
-      <c r="IJ1" s="48"/>
-      <c r="IK1" s="48"/>
-      <c r="IL1" s="48"/>
-      <c r="IM1" s="48"/>
-      <c r="IN1" s="48"/>
-      <c r="IO1" s="48"/>
-      <c r="IP1" s="48"/>
-      <c r="IQ1" s="48"/>
-      <c r="IR1" s="48"/>
-      <c r="IS1" s="48"/>
-      <c r="IT1" s="48"/>
-      <c r="IU1" s="48"/>
-      <c r="IV1" s="48"/>
-      <c r="IW1" s="48"/>
-      <c r="IX1" s="48"/>
-      <c r="IY1" s="48"/>
-      <c r="IZ1" s="48"/>
-      <c r="JA1" s="48"/>
-      <c r="JB1" s="48"/>
-      <c r="JC1" s="48"/>
-      <c r="JD1" s="48"/>
-      <c r="JE1" s="48"/>
-      <c r="JF1" s="48"/>
-      <c r="JG1" s="49"/>
-      <c r="JH1" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="JI1" s="50"/>
-      <c r="JJ1" s="50"/>
-      <c r="JK1" s="50"/>
-      <c r="JL1" s="50"/>
-      <c r="JM1" s="50"/>
-      <c r="JN1" s="50"/>
-      <c r="JO1" s="50"/>
-      <c r="JP1" s="50"/>
-      <c r="JQ1" s="50"/>
-      <c r="JR1" s="50"/>
-      <c r="JS1" s="50"/>
-      <c r="JT1" s="50"/>
-      <c r="JU1" s="50"/>
-      <c r="JV1" s="50"/>
-      <c r="JW1" s="50"/>
-      <c r="JX1" s="50"/>
-      <c r="JY1" s="50"/>
-      <c r="JZ1" s="50"/>
-      <c r="KA1" s="50"/>
-      <c r="KB1" s="50"/>
-      <c r="KC1" s="50"/>
-      <c r="KD1" s="50"/>
-      <c r="KE1" s="50"/>
-      <c r="KF1" s="50"/>
-      <c r="KG1" s="50"/>
-      <c r="KH1" s="50"/>
-      <c r="KI1" s="50"/>
-      <c r="KJ1" s="50"/>
-      <c r="KK1" s="50"/>
-      <c r="KL1" s="50"/>
-      <c r="KM1" s="50"/>
-      <c r="KN1" s="50"/>
-      <c r="KO1" s="50"/>
-      <c r="KP1" s="50"/>
-      <c r="KQ1" s="50"/>
-      <c r="KR1" s="50"/>
-      <c r="KS1" s="50"/>
-      <c r="KT1" s="50"/>
-      <c r="KU1" s="50"/>
-      <c r="KV1" s="50"/>
-      <c r="KW1" s="50"/>
-      <c r="KX1" s="50"/>
-      <c r="KY1" s="50"/>
-      <c r="KZ1" s="50"/>
-      <c r="LA1" s="50"/>
-      <c r="LB1" s="50"/>
-      <c r="LC1" s="50"/>
-      <c r="LD1" s="50"/>
-      <c r="LE1" s="50"/>
-      <c r="LF1" s="50"/>
-      <c r="LG1" s="50"/>
-      <c r="LH1" s="51"/>
-      <c r="LI1" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="LJ1" s="52"/>
-      <c r="LK1" s="52"/>
-      <c r="LL1" s="52"/>
-      <c r="LM1" s="52"/>
-      <c r="LN1" s="52"/>
-      <c r="LO1" s="52"/>
-      <c r="LP1" s="52"/>
-      <c r="LQ1" s="52"/>
-      <c r="LR1" s="52"/>
-      <c r="LS1" s="52"/>
-      <c r="LT1" s="52"/>
-      <c r="LU1" s="52"/>
-      <c r="LV1" s="52"/>
-      <c r="LW1" s="52"/>
-      <c r="LX1" s="52"/>
-      <c r="LY1" s="52"/>
-      <c r="LZ1" s="52"/>
-      <c r="MA1" s="52"/>
-      <c r="MB1" s="52"/>
-      <c r="MC1" s="52"/>
-      <c r="MD1" s="52"/>
-      <c r="ME1" s="52"/>
-      <c r="MF1" s="52"/>
-      <c r="MG1" s="52"/>
-      <c r="MH1" s="52"/>
-      <c r="MI1" s="52"/>
-      <c r="MJ1" s="52"/>
-      <c r="MK1" s="52"/>
-      <c r="ML1" s="52"/>
-      <c r="MM1" s="52"/>
-      <c r="MN1" s="52"/>
-      <c r="MO1" s="52"/>
-      <c r="MP1" s="52"/>
-      <c r="MQ1" s="52"/>
-      <c r="MR1" s="52"/>
-      <c r="MS1" s="52"/>
-      <c r="MT1" s="52"/>
-      <c r="MU1" s="52"/>
-      <c r="MV1" s="52"/>
-      <c r="MW1" s="52"/>
-      <c r="MX1" s="52"/>
-      <c r="MY1" s="52"/>
-      <c r="MZ1" s="52"/>
-      <c r="NA1" s="52"/>
-      <c r="NB1" s="52"/>
-      <c r="NC1" s="52"/>
-      <c r="ND1" s="52"/>
-      <c r="NE1" s="52"/>
-      <c r="NF1" s="52"/>
-      <c r="NG1" s="52"/>
-      <c r="NH1" s="52"/>
-      <c r="NI1" s="53"/>
+      <c r="C1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
+      <c r="BU1" s="68"/>
+      <c r="BV1" s="68"/>
+      <c r="BW1" s="68"/>
+      <c r="BX1" s="68"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="68"/>
+      <c r="CL1" s="68"/>
+      <c r="CM1" s="68"/>
+      <c r="CN1" s="68"/>
+      <c r="CO1" s="68"/>
+      <c r="CP1" s="68"/>
+      <c r="CQ1" s="68"/>
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="68"/>
+      <c r="CT1" s="68"/>
+      <c r="CU1" s="68"/>
+      <c r="CV1" s="68"/>
+      <c r="CW1" s="68"/>
+      <c r="CX1" s="68"/>
+      <c r="CY1" s="68"/>
+      <c r="CZ1" s="68"/>
+      <c r="DA1" s="68"/>
+      <c r="DB1" s="68"/>
+      <c r="DC1" s="68"/>
+      <c r="DD1" s="69"/>
+      <c r="DE1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF1" s="70"/>
+      <c r="DG1" s="70"/>
+      <c r="DH1" s="70"/>
+      <c r="DI1" s="70"/>
+      <c r="DJ1" s="70"/>
+      <c r="DK1" s="70"/>
+      <c r="DL1" s="70"/>
+      <c r="DM1" s="70"/>
+      <c r="DN1" s="70"/>
+      <c r="DO1" s="70"/>
+      <c r="DP1" s="70"/>
+      <c r="DQ1" s="70"/>
+      <c r="DR1" s="70"/>
+      <c r="DS1" s="70"/>
+      <c r="DT1" s="70"/>
+      <c r="DU1" s="70"/>
+      <c r="DV1" s="70"/>
+      <c r="DW1" s="70"/>
+      <c r="DX1" s="70"/>
+      <c r="DY1" s="70"/>
+      <c r="DZ1" s="70"/>
+      <c r="EA1" s="70"/>
+      <c r="EB1" s="70"/>
+      <c r="EC1" s="70"/>
+      <c r="ED1" s="70"/>
+      <c r="EE1" s="70"/>
+      <c r="EF1" s="70"/>
+      <c r="EG1" s="70"/>
+      <c r="EH1" s="70"/>
+      <c r="EI1" s="70"/>
+      <c r="EJ1" s="70"/>
+      <c r="EK1" s="70"/>
+      <c r="EL1" s="70"/>
+      <c r="EM1" s="70"/>
+      <c r="EN1" s="70"/>
+      <c r="EO1" s="70"/>
+      <c r="EP1" s="70"/>
+      <c r="EQ1" s="70"/>
+      <c r="ER1" s="70"/>
+      <c r="ES1" s="70"/>
+      <c r="ET1" s="70"/>
+      <c r="EU1" s="70"/>
+      <c r="EV1" s="70"/>
+      <c r="EW1" s="70"/>
+      <c r="EX1" s="70"/>
+      <c r="EY1" s="70"/>
+      <c r="EZ1" s="70"/>
+      <c r="FA1" s="70"/>
+      <c r="FB1" s="70"/>
+      <c r="FC1" s="70"/>
+      <c r="FD1" s="70"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG1" s="72"/>
+      <c r="FH1" s="72"/>
+      <c r="FI1" s="72"/>
+      <c r="FJ1" s="72"/>
+      <c r="FK1" s="72"/>
+      <c r="FL1" s="72"/>
+      <c r="FM1" s="72"/>
+      <c r="FN1" s="72"/>
+      <c r="FO1" s="72"/>
+      <c r="FP1" s="72"/>
+      <c r="FQ1" s="72"/>
+      <c r="FR1" s="72"/>
+      <c r="FS1" s="72"/>
+      <c r="FT1" s="72"/>
+      <c r="FU1" s="72"/>
+      <c r="FV1" s="72"/>
+      <c r="FW1" s="72"/>
+      <c r="FX1" s="72"/>
+      <c r="FY1" s="72"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="72"/>
+      <c r="GB1" s="72"/>
+      <c r="GC1" s="72"/>
+      <c r="GD1" s="72"/>
+      <c r="GE1" s="72"/>
+      <c r="GF1" s="72"/>
+      <c r="GG1" s="72"/>
+      <c r="GH1" s="72"/>
+      <c r="GI1" s="72"/>
+      <c r="GJ1" s="72"/>
+      <c r="GK1" s="72"/>
+      <c r="GL1" s="72"/>
+      <c r="GM1" s="72"/>
+      <c r="GN1" s="72"/>
+      <c r="GO1" s="72"/>
+      <c r="GP1" s="72"/>
+      <c r="GQ1" s="72"/>
+      <c r="GR1" s="72"/>
+      <c r="GS1" s="72"/>
+      <c r="GT1" s="72"/>
+      <c r="GU1" s="72"/>
+      <c r="GV1" s="72"/>
+      <c r="GW1" s="72"/>
+      <c r="GX1" s="72"/>
+      <c r="GY1" s="72"/>
+      <c r="GZ1" s="72"/>
+      <c r="HA1" s="72"/>
+      <c r="HB1" s="72"/>
+      <c r="HC1" s="72"/>
+      <c r="HD1" s="72"/>
+      <c r="HE1" s="72"/>
+      <c r="HF1" s="73"/>
+      <c r="HG1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH1" s="60"/>
+      <c r="HI1" s="60"/>
+      <c r="HJ1" s="60"/>
+      <c r="HK1" s="60"/>
+      <c r="HL1" s="60"/>
+      <c r="HM1" s="60"/>
+      <c r="HN1" s="60"/>
+      <c r="HO1" s="60"/>
+      <c r="HP1" s="60"/>
+      <c r="HQ1" s="60"/>
+      <c r="HR1" s="60"/>
+      <c r="HS1" s="60"/>
+      <c r="HT1" s="60"/>
+      <c r="HU1" s="60"/>
+      <c r="HV1" s="60"/>
+      <c r="HW1" s="60"/>
+      <c r="HX1" s="60"/>
+      <c r="HY1" s="60"/>
+      <c r="HZ1" s="60"/>
+      <c r="IA1" s="60"/>
+      <c r="IB1" s="60"/>
+      <c r="IC1" s="60"/>
+      <c r="ID1" s="60"/>
+      <c r="IE1" s="60"/>
+      <c r="IF1" s="60"/>
+      <c r="IG1" s="60"/>
+      <c r="IH1" s="60"/>
+      <c r="II1" s="60"/>
+      <c r="IJ1" s="60"/>
+      <c r="IK1" s="60"/>
+      <c r="IL1" s="60"/>
+      <c r="IM1" s="60"/>
+      <c r="IN1" s="60"/>
+      <c r="IO1" s="60"/>
+      <c r="IP1" s="60"/>
+      <c r="IQ1" s="60"/>
+      <c r="IR1" s="60"/>
+      <c r="IS1" s="60"/>
+      <c r="IT1" s="60"/>
+      <c r="IU1" s="60"/>
+      <c r="IV1" s="60"/>
+      <c r="IW1" s="60"/>
+      <c r="IX1" s="60"/>
+      <c r="IY1" s="60"/>
+      <c r="IZ1" s="60"/>
+      <c r="JA1" s="60"/>
+      <c r="JB1" s="60"/>
+      <c r="JC1" s="60"/>
+      <c r="JD1" s="60"/>
+      <c r="JE1" s="60"/>
+      <c r="JF1" s="60"/>
+      <c r="JG1" s="61"/>
+      <c r="JH1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI1" s="63"/>
+      <c r="JJ1" s="63"/>
+      <c r="JK1" s="63"/>
+      <c r="JL1" s="63"/>
+      <c r="JM1" s="63"/>
+      <c r="JN1" s="63"/>
+      <c r="JO1" s="63"/>
+      <c r="JP1" s="63"/>
+      <c r="JQ1" s="63"/>
+      <c r="JR1" s="63"/>
+      <c r="JS1" s="63"/>
+      <c r="JT1" s="63"/>
+      <c r="JU1" s="63"/>
+      <c r="JV1" s="63"/>
+      <c r="JW1" s="63"/>
+      <c r="JX1" s="63"/>
+      <c r="JY1" s="63"/>
+      <c r="JZ1" s="63"/>
+      <c r="KA1" s="63"/>
+      <c r="KB1" s="63"/>
+      <c r="KC1" s="63"/>
+      <c r="KD1" s="63"/>
+      <c r="KE1" s="63"/>
+      <c r="KF1" s="63"/>
+      <c r="KG1" s="63"/>
+      <c r="KH1" s="63"/>
+      <c r="KI1" s="63"/>
+      <c r="KJ1" s="63"/>
+      <c r="KK1" s="63"/>
+      <c r="KL1" s="63"/>
+      <c r="KM1" s="63"/>
+      <c r="KN1" s="63"/>
+      <c r="KO1" s="63"/>
+      <c r="KP1" s="63"/>
+      <c r="KQ1" s="63"/>
+      <c r="KR1" s="63"/>
+      <c r="KS1" s="63"/>
+      <c r="KT1" s="63"/>
+      <c r="KU1" s="63"/>
+      <c r="KV1" s="63"/>
+      <c r="KW1" s="63"/>
+      <c r="KX1" s="63"/>
+      <c r="KY1" s="63"/>
+      <c r="KZ1" s="63"/>
+      <c r="LA1" s="63"/>
+      <c r="LB1" s="63"/>
+      <c r="LC1" s="63"/>
+      <c r="LD1" s="63"/>
+      <c r="LE1" s="63"/>
+      <c r="LF1" s="63"/>
+      <c r="LG1" s="63"/>
+      <c r="LH1" s="64"/>
+      <c r="LI1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="LJ1" s="45"/>
+      <c r="LK1" s="45"/>
+      <c r="LL1" s="45"/>
+      <c r="LM1" s="45"/>
+      <c r="LN1" s="45"/>
+      <c r="LO1" s="45"/>
+      <c r="LP1" s="45"/>
+      <c r="LQ1" s="45"/>
+      <c r="LR1" s="45"/>
+      <c r="LS1" s="45"/>
+      <c r="LT1" s="45"/>
+      <c r="LU1" s="45"/>
+      <c r="LV1" s="45"/>
+      <c r="LW1" s="45"/>
+      <c r="LX1" s="45"/>
+      <c r="LY1" s="45"/>
+      <c r="LZ1" s="45"/>
+      <c r="MA1" s="45"/>
+      <c r="MB1" s="45"/>
+      <c r="MC1" s="45"/>
+      <c r="MD1" s="45"/>
+      <c r="ME1" s="45"/>
+      <c r="MF1" s="45"/>
+      <c r="MG1" s="45"/>
+      <c r="MH1" s="45"/>
+      <c r="MI1" s="45"/>
+      <c r="MJ1" s="45"/>
+      <c r="MK1" s="45"/>
+      <c r="ML1" s="45"/>
+      <c r="MM1" s="45"/>
+      <c r="MN1" s="45"/>
+      <c r="MO1" s="45"/>
+      <c r="MP1" s="45"/>
+      <c r="MQ1" s="45"/>
+      <c r="MR1" s="45"/>
+      <c r="MS1" s="45"/>
+      <c r="MT1" s="45"/>
+      <c r="MU1" s="45"/>
+      <c r="MV1" s="45"/>
+      <c r="MW1" s="45"/>
+      <c r="MX1" s="45"/>
+      <c r="MY1" s="45"/>
+      <c r="MZ1" s="45"/>
+      <c r="NA1" s="45"/>
+      <c r="NB1" s="45"/>
+      <c r="NC1" s="45"/>
+      <c r="ND1" s="45"/>
+      <c r="NE1" s="45"/>
+      <c r="NF1" s="45"/>
+      <c r="NG1" s="45"/>
+      <c r="NH1" s="45"/>
+      <c r="NI1" s="46"/>
     </row>
-    <row r="2" spans="1:373">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+    <row r="2" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="11">
         <v>2015</v>
       </c>
@@ -36010,398 +36010,398 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:373">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="65" t="s">
+    <row r="3" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="68" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="70"/>
-      <c r="DE3" s="71" t="s">
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="51"/>
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="51"/>
+      <c r="BV3" s="51"/>
+      <c r="BW3" s="51"/>
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="51"/>
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="51"/>
+      <c r="CB3" s="51"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="51"/>
+      <c r="CE3" s="51"/>
+      <c r="CF3" s="51"/>
+      <c r="CG3" s="51"/>
+      <c r="CH3" s="51"/>
+      <c r="CI3" s="51"/>
+      <c r="CJ3" s="51"/>
+      <c r="CK3" s="51"/>
+      <c r="CL3" s="51"/>
+      <c r="CM3" s="51"/>
+      <c r="CN3" s="51"/>
+      <c r="CO3" s="51"/>
+      <c r="CP3" s="51"/>
+      <c r="CQ3" s="51"/>
+      <c r="CR3" s="51"/>
+      <c r="CS3" s="51"/>
+      <c r="CT3" s="51"/>
+      <c r="CU3" s="51"/>
+      <c r="CV3" s="51"/>
+      <c r="CW3" s="51"/>
+      <c r="CX3" s="51"/>
+      <c r="CY3" s="51"/>
+      <c r="CZ3" s="51"/>
+      <c r="DA3" s="51"/>
+      <c r="DB3" s="51"/>
+      <c r="DC3" s="51"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="DF3" s="72"/>
-      <c r="DG3" s="72"/>
-      <c r="DH3" s="72"/>
-      <c r="DI3" s="72"/>
-      <c r="DJ3" s="72"/>
-      <c r="DK3" s="72"/>
-      <c r="DL3" s="72"/>
-      <c r="DM3" s="72"/>
-      <c r="DN3" s="72"/>
-      <c r="DO3" s="72"/>
-      <c r="DP3" s="72"/>
-      <c r="DQ3" s="72"/>
-      <c r="DR3" s="72"/>
-      <c r="DS3" s="72"/>
-      <c r="DT3" s="72"/>
-      <c r="DU3" s="72"/>
-      <c r="DV3" s="72"/>
-      <c r="DW3" s="72"/>
-      <c r="DX3" s="72"/>
-      <c r="DY3" s="72"/>
-      <c r="DZ3" s="72"/>
-      <c r="EA3" s="72"/>
-      <c r="EB3" s="72"/>
-      <c r="EC3" s="72"/>
-      <c r="ED3" s="72"/>
-      <c r="EE3" s="72"/>
-      <c r="EF3" s="72"/>
-      <c r="EG3" s="72"/>
-      <c r="EH3" s="72"/>
-      <c r="EI3" s="72"/>
-      <c r="EJ3" s="72"/>
-      <c r="EK3" s="72"/>
-      <c r="EL3" s="72"/>
-      <c r="EM3" s="72"/>
-      <c r="EN3" s="72"/>
-      <c r="EO3" s="72"/>
-      <c r="EP3" s="72"/>
-      <c r="EQ3" s="72"/>
-      <c r="ER3" s="72"/>
-      <c r="ES3" s="72"/>
-      <c r="ET3" s="72"/>
-      <c r="EU3" s="72"/>
-      <c r="EV3" s="72"/>
-      <c r="EW3" s="72"/>
-      <c r="EX3" s="72"/>
-      <c r="EY3" s="72"/>
-      <c r="EZ3" s="72"/>
-      <c r="FA3" s="72"/>
-      <c r="FB3" s="72"/>
-      <c r="FC3" s="72"/>
-      <c r="FD3" s="72"/>
-      <c r="FE3" s="73"/>
-      <c r="FF3" s="74" t="s">
+      <c r="DF3" s="54"/>
+      <c r="DG3" s="54"/>
+      <c r="DH3" s="54"/>
+      <c r="DI3" s="54"/>
+      <c r="DJ3" s="54"/>
+      <c r="DK3" s="54"/>
+      <c r="DL3" s="54"/>
+      <c r="DM3" s="54"/>
+      <c r="DN3" s="54"/>
+      <c r="DO3" s="54"/>
+      <c r="DP3" s="54"/>
+      <c r="DQ3" s="54"/>
+      <c r="DR3" s="54"/>
+      <c r="DS3" s="54"/>
+      <c r="DT3" s="54"/>
+      <c r="DU3" s="54"/>
+      <c r="DV3" s="54"/>
+      <c r="DW3" s="54"/>
+      <c r="DX3" s="54"/>
+      <c r="DY3" s="54"/>
+      <c r="DZ3" s="54"/>
+      <c r="EA3" s="54"/>
+      <c r="EB3" s="54"/>
+      <c r="EC3" s="54"/>
+      <c r="ED3" s="54"/>
+      <c r="EE3" s="54"/>
+      <c r="EF3" s="54"/>
+      <c r="EG3" s="54"/>
+      <c r="EH3" s="54"/>
+      <c r="EI3" s="54"/>
+      <c r="EJ3" s="54"/>
+      <c r="EK3" s="54"/>
+      <c r="EL3" s="54"/>
+      <c r="EM3" s="54"/>
+      <c r="EN3" s="54"/>
+      <c r="EO3" s="54"/>
+      <c r="EP3" s="54"/>
+      <c r="EQ3" s="54"/>
+      <c r="ER3" s="54"/>
+      <c r="ES3" s="54"/>
+      <c r="ET3" s="54"/>
+      <c r="EU3" s="54"/>
+      <c r="EV3" s="54"/>
+      <c r="EW3" s="54"/>
+      <c r="EX3" s="54"/>
+      <c r="EY3" s="54"/>
+      <c r="EZ3" s="54"/>
+      <c r="FA3" s="54"/>
+      <c r="FB3" s="54"/>
+      <c r="FC3" s="54"/>
+      <c r="FD3" s="54"/>
+      <c r="FE3" s="55"/>
+      <c r="FF3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="FG3" s="75"/>
-      <c r="FH3" s="75"/>
-      <c r="FI3" s="75"/>
-      <c r="FJ3" s="75"/>
-      <c r="FK3" s="75"/>
-      <c r="FL3" s="75"/>
-      <c r="FM3" s="75"/>
-      <c r="FN3" s="75"/>
-      <c r="FO3" s="75"/>
-      <c r="FP3" s="75"/>
-      <c r="FQ3" s="75"/>
-      <c r="FR3" s="75"/>
-      <c r="FS3" s="75"/>
-      <c r="FT3" s="75"/>
-      <c r="FU3" s="75"/>
-      <c r="FV3" s="75"/>
-      <c r="FW3" s="75"/>
-      <c r="FX3" s="75"/>
-      <c r="FY3" s="75"/>
-      <c r="FZ3" s="75"/>
-      <c r="GA3" s="75"/>
-      <c r="GB3" s="75"/>
-      <c r="GC3" s="75"/>
-      <c r="GD3" s="75"/>
-      <c r="GE3" s="75"/>
-      <c r="GF3" s="75"/>
-      <c r="GG3" s="75"/>
-      <c r="GH3" s="75"/>
-      <c r="GI3" s="75"/>
-      <c r="GJ3" s="75"/>
-      <c r="GK3" s="75"/>
-      <c r="GL3" s="75"/>
-      <c r="GM3" s="75"/>
-      <c r="GN3" s="75"/>
-      <c r="GO3" s="75"/>
-      <c r="GP3" s="75"/>
-      <c r="GQ3" s="75"/>
-      <c r="GR3" s="75"/>
-      <c r="GS3" s="75"/>
-      <c r="GT3" s="75"/>
-      <c r="GU3" s="75"/>
-      <c r="GV3" s="75"/>
-      <c r="GW3" s="75"/>
-      <c r="GX3" s="75"/>
-      <c r="GY3" s="75"/>
-      <c r="GZ3" s="75"/>
-      <c r="HA3" s="75"/>
-      <c r="HB3" s="75"/>
-      <c r="HC3" s="75"/>
-      <c r="HD3" s="75"/>
-      <c r="HE3" s="75"/>
-      <c r="HF3" s="76"/>
-      <c r="HG3" s="77" t="s">
+      <c r="FG3" s="57"/>
+      <c r="FH3" s="57"/>
+      <c r="FI3" s="57"/>
+      <c r="FJ3" s="57"/>
+      <c r="FK3" s="57"/>
+      <c r="FL3" s="57"/>
+      <c r="FM3" s="57"/>
+      <c r="FN3" s="57"/>
+      <c r="FO3" s="57"/>
+      <c r="FP3" s="57"/>
+      <c r="FQ3" s="57"/>
+      <c r="FR3" s="57"/>
+      <c r="FS3" s="57"/>
+      <c r="FT3" s="57"/>
+      <c r="FU3" s="57"/>
+      <c r="FV3" s="57"/>
+      <c r="FW3" s="57"/>
+      <c r="FX3" s="57"/>
+      <c r="FY3" s="57"/>
+      <c r="FZ3" s="57"/>
+      <c r="GA3" s="57"/>
+      <c r="GB3" s="57"/>
+      <c r="GC3" s="57"/>
+      <c r="GD3" s="57"/>
+      <c r="GE3" s="57"/>
+      <c r="GF3" s="57"/>
+      <c r="GG3" s="57"/>
+      <c r="GH3" s="57"/>
+      <c r="GI3" s="57"/>
+      <c r="GJ3" s="57"/>
+      <c r="GK3" s="57"/>
+      <c r="GL3" s="57"/>
+      <c r="GM3" s="57"/>
+      <c r="GN3" s="57"/>
+      <c r="GO3" s="57"/>
+      <c r="GP3" s="57"/>
+      <c r="GQ3" s="57"/>
+      <c r="GR3" s="57"/>
+      <c r="GS3" s="57"/>
+      <c r="GT3" s="57"/>
+      <c r="GU3" s="57"/>
+      <c r="GV3" s="57"/>
+      <c r="GW3" s="57"/>
+      <c r="GX3" s="57"/>
+      <c r="GY3" s="57"/>
+      <c r="GZ3" s="57"/>
+      <c r="HA3" s="57"/>
+      <c r="HB3" s="57"/>
+      <c r="HC3" s="57"/>
+      <c r="HD3" s="57"/>
+      <c r="HE3" s="57"/>
+      <c r="HF3" s="58"/>
+      <c r="HG3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="HH3" s="48"/>
-      <c r="HI3" s="48"/>
-      <c r="HJ3" s="48"/>
-      <c r="HK3" s="48"/>
-      <c r="HL3" s="48"/>
-      <c r="HM3" s="48"/>
-      <c r="HN3" s="48"/>
-      <c r="HO3" s="48"/>
-      <c r="HP3" s="48"/>
-      <c r="HQ3" s="48"/>
-      <c r="HR3" s="48"/>
-      <c r="HS3" s="48"/>
-      <c r="HT3" s="48"/>
-      <c r="HU3" s="48"/>
-      <c r="HV3" s="48"/>
-      <c r="HW3" s="48"/>
-      <c r="HX3" s="48"/>
-      <c r="HY3" s="48"/>
-      <c r="HZ3" s="48"/>
-      <c r="IA3" s="48"/>
-      <c r="IB3" s="48"/>
-      <c r="IC3" s="48"/>
-      <c r="ID3" s="48"/>
-      <c r="IE3" s="48"/>
-      <c r="IF3" s="48"/>
-      <c r="IG3" s="48"/>
-      <c r="IH3" s="48"/>
-      <c r="II3" s="48"/>
-      <c r="IJ3" s="48"/>
-      <c r="IK3" s="48"/>
-      <c r="IL3" s="48"/>
-      <c r="IM3" s="48"/>
-      <c r="IN3" s="48"/>
-      <c r="IO3" s="48"/>
-      <c r="IP3" s="48"/>
-      <c r="IQ3" s="48"/>
-      <c r="IR3" s="48"/>
-      <c r="IS3" s="48"/>
-      <c r="IT3" s="48"/>
-      <c r="IU3" s="48"/>
-      <c r="IV3" s="48"/>
-      <c r="IW3" s="48"/>
-      <c r="IX3" s="48"/>
-      <c r="IY3" s="48"/>
-      <c r="IZ3" s="48"/>
-      <c r="JA3" s="48"/>
-      <c r="JB3" s="48"/>
-      <c r="JC3" s="48"/>
-      <c r="JD3" s="48"/>
-      <c r="JE3" s="48"/>
-      <c r="JF3" s="48"/>
-      <c r="JG3" s="49"/>
-      <c r="JH3" s="78" t="s">
+      <c r="HH3" s="60"/>
+      <c r="HI3" s="60"/>
+      <c r="HJ3" s="60"/>
+      <c r="HK3" s="60"/>
+      <c r="HL3" s="60"/>
+      <c r="HM3" s="60"/>
+      <c r="HN3" s="60"/>
+      <c r="HO3" s="60"/>
+      <c r="HP3" s="60"/>
+      <c r="HQ3" s="60"/>
+      <c r="HR3" s="60"/>
+      <c r="HS3" s="60"/>
+      <c r="HT3" s="60"/>
+      <c r="HU3" s="60"/>
+      <c r="HV3" s="60"/>
+      <c r="HW3" s="60"/>
+      <c r="HX3" s="60"/>
+      <c r="HY3" s="60"/>
+      <c r="HZ3" s="60"/>
+      <c r="IA3" s="60"/>
+      <c r="IB3" s="60"/>
+      <c r="IC3" s="60"/>
+      <c r="ID3" s="60"/>
+      <c r="IE3" s="60"/>
+      <c r="IF3" s="60"/>
+      <c r="IG3" s="60"/>
+      <c r="IH3" s="60"/>
+      <c r="II3" s="60"/>
+      <c r="IJ3" s="60"/>
+      <c r="IK3" s="60"/>
+      <c r="IL3" s="60"/>
+      <c r="IM3" s="60"/>
+      <c r="IN3" s="60"/>
+      <c r="IO3" s="60"/>
+      <c r="IP3" s="60"/>
+      <c r="IQ3" s="60"/>
+      <c r="IR3" s="60"/>
+      <c r="IS3" s="60"/>
+      <c r="IT3" s="60"/>
+      <c r="IU3" s="60"/>
+      <c r="IV3" s="60"/>
+      <c r="IW3" s="60"/>
+      <c r="IX3" s="60"/>
+      <c r="IY3" s="60"/>
+      <c r="IZ3" s="60"/>
+      <c r="JA3" s="60"/>
+      <c r="JB3" s="60"/>
+      <c r="JC3" s="60"/>
+      <c r="JD3" s="60"/>
+      <c r="JE3" s="60"/>
+      <c r="JF3" s="60"/>
+      <c r="JG3" s="61"/>
+      <c r="JH3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="JI3" s="50"/>
-      <c r="JJ3" s="50"/>
-      <c r="JK3" s="50"/>
-      <c r="JL3" s="50"/>
-      <c r="JM3" s="50"/>
-      <c r="JN3" s="50"/>
-      <c r="JO3" s="50"/>
-      <c r="JP3" s="50"/>
-      <c r="JQ3" s="50"/>
-      <c r="JR3" s="50"/>
-      <c r="JS3" s="50"/>
-      <c r="JT3" s="50"/>
-      <c r="JU3" s="50"/>
-      <c r="JV3" s="50"/>
-      <c r="JW3" s="50"/>
-      <c r="JX3" s="50"/>
-      <c r="JY3" s="50"/>
-      <c r="JZ3" s="50"/>
-      <c r="KA3" s="50"/>
-      <c r="KB3" s="50"/>
-      <c r="KC3" s="50"/>
-      <c r="KD3" s="50"/>
-      <c r="KE3" s="50"/>
-      <c r="KF3" s="50"/>
-      <c r="KG3" s="50"/>
-      <c r="KH3" s="50"/>
-      <c r="KI3" s="50"/>
-      <c r="KJ3" s="50"/>
-      <c r="KK3" s="50"/>
-      <c r="KL3" s="50"/>
-      <c r="KM3" s="50"/>
-      <c r="KN3" s="50"/>
-      <c r="KO3" s="50"/>
-      <c r="KP3" s="50"/>
-      <c r="KQ3" s="50"/>
-      <c r="KR3" s="50"/>
-      <c r="KS3" s="50"/>
-      <c r="KT3" s="50"/>
-      <c r="KU3" s="50"/>
-      <c r="KV3" s="50"/>
-      <c r="KW3" s="50"/>
-      <c r="KX3" s="50"/>
-      <c r="KY3" s="50"/>
-      <c r="KZ3" s="50"/>
-      <c r="LA3" s="50"/>
-      <c r="LB3" s="50"/>
-      <c r="LC3" s="50"/>
-      <c r="LD3" s="50"/>
-      <c r="LE3" s="50"/>
-      <c r="LF3" s="50"/>
-      <c r="LG3" s="50"/>
-      <c r="LH3" s="51"/>
-      <c r="LI3" s="79" t="s">
+      <c r="JI3" s="63"/>
+      <c r="JJ3" s="63"/>
+      <c r="JK3" s="63"/>
+      <c r="JL3" s="63"/>
+      <c r="JM3" s="63"/>
+      <c r="JN3" s="63"/>
+      <c r="JO3" s="63"/>
+      <c r="JP3" s="63"/>
+      <c r="JQ3" s="63"/>
+      <c r="JR3" s="63"/>
+      <c r="JS3" s="63"/>
+      <c r="JT3" s="63"/>
+      <c r="JU3" s="63"/>
+      <c r="JV3" s="63"/>
+      <c r="JW3" s="63"/>
+      <c r="JX3" s="63"/>
+      <c r="JY3" s="63"/>
+      <c r="JZ3" s="63"/>
+      <c r="KA3" s="63"/>
+      <c r="KB3" s="63"/>
+      <c r="KC3" s="63"/>
+      <c r="KD3" s="63"/>
+      <c r="KE3" s="63"/>
+      <c r="KF3" s="63"/>
+      <c r="KG3" s="63"/>
+      <c r="KH3" s="63"/>
+      <c r="KI3" s="63"/>
+      <c r="KJ3" s="63"/>
+      <c r="KK3" s="63"/>
+      <c r="KL3" s="63"/>
+      <c r="KM3" s="63"/>
+      <c r="KN3" s="63"/>
+      <c r="KO3" s="63"/>
+      <c r="KP3" s="63"/>
+      <c r="KQ3" s="63"/>
+      <c r="KR3" s="63"/>
+      <c r="KS3" s="63"/>
+      <c r="KT3" s="63"/>
+      <c r="KU3" s="63"/>
+      <c r="KV3" s="63"/>
+      <c r="KW3" s="63"/>
+      <c r="KX3" s="63"/>
+      <c r="KY3" s="63"/>
+      <c r="KZ3" s="63"/>
+      <c r="LA3" s="63"/>
+      <c r="LB3" s="63"/>
+      <c r="LC3" s="63"/>
+      <c r="LD3" s="63"/>
+      <c r="LE3" s="63"/>
+      <c r="LF3" s="63"/>
+      <c r="LG3" s="63"/>
+      <c r="LH3" s="64"/>
+      <c r="LI3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="LJ3" s="52"/>
-      <c r="LK3" s="52"/>
-      <c r="LL3" s="52"/>
-      <c r="LM3" s="52"/>
-      <c r="LN3" s="52"/>
-      <c r="LO3" s="52"/>
-      <c r="LP3" s="52"/>
-      <c r="LQ3" s="52"/>
-      <c r="LR3" s="52"/>
-      <c r="LS3" s="52"/>
-      <c r="LT3" s="52"/>
-      <c r="LU3" s="52"/>
-      <c r="LV3" s="52"/>
-      <c r="LW3" s="52"/>
-      <c r="LX3" s="52"/>
-      <c r="LY3" s="52"/>
-      <c r="LZ3" s="52"/>
-      <c r="MA3" s="52"/>
-      <c r="MB3" s="52"/>
-      <c r="MC3" s="52"/>
-      <c r="MD3" s="52"/>
-      <c r="ME3" s="52"/>
-      <c r="MF3" s="52"/>
-      <c r="MG3" s="52"/>
-      <c r="MH3" s="52"/>
-      <c r="MI3" s="52"/>
-      <c r="MJ3" s="52"/>
-      <c r="MK3" s="52"/>
-      <c r="ML3" s="52"/>
-      <c r="MM3" s="52"/>
-      <c r="MN3" s="52"/>
-      <c r="MO3" s="52"/>
-      <c r="MP3" s="52"/>
-      <c r="MQ3" s="52"/>
-      <c r="MR3" s="52"/>
-      <c r="MS3" s="52"/>
-      <c r="MT3" s="52"/>
-      <c r="MU3" s="52"/>
-      <c r="MV3" s="52"/>
-      <c r="MW3" s="52"/>
-      <c r="MX3" s="52"/>
-      <c r="MY3" s="52"/>
-      <c r="MZ3" s="52"/>
-      <c r="NA3" s="52"/>
-      <c r="NB3" s="52"/>
-      <c r="NC3" s="52"/>
-      <c r="ND3" s="52"/>
-      <c r="NE3" s="52"/>
-      <c r="NF3" s="52"/>
-      <c r="NG3" s="52"/>
-      <c r="NH3" s="52"/>
-      <c r="NI3" s="53"/>
+      <c r="LJ3" s="45"/>
+      <c r="LK3" s="45"/>
+      <c r="LL3" s="45"/>
+      <c r="LM3" s="45"/>
+      <c r="LN3" s="45"/>
+      <c r="LO3" s="45"/>
+      <c r="LP3" s="45"/>
+      <c r="LQ3" s="45"/>
+      <c r="LR3" s="45"/>
+      <c r="LS3" s="45"/>
+      <c r="LT3" s="45"/>
+      <c r="LU3" s="45"/>
+      <c r="LV3" s="45"/>
+      <c r="LW3" s="45"/>
+      <c r="LX3" s="45"/>
+      <c r="LY3" s="45"/>
+      <c r="LZ3" s="45"/>
+      <c r="MA3" s="45"/>
+      <c r="MB3" s="45"/>
+      <c r="MC3" s="45"/>
+      <c r="MD3" s="45"/>
+      <c r="ME3" s="45"/>
+      <c r="MF3" s="45"/>
+      <c r="MG3" s="45"/>
+      <c r="MH3" s="45"/>
+      <c r="MI3" s="45"/>
+      <c r="MJ3" s="45"/>
+      <c r="MK3" s="45"/>
+      <c r="ML3" s="45"/>
+      <c r="MM3" s="45"/>
+      <c r="MN3" s="45"/>
+      <c r="MO3" s="45"/>
+      <c r="MP3" s="45"/>
+      <c r="MQ3" s="45"/>
+      <c r="MR3" s="45"/>
+      <c r="MS3" s="45"/>
+      <c r="MT3" s="45"/>
+      <c r="MU3" s="45"/>
+      <c r="MV3" s="45"/>
+      <c r="MW3" s="45"/>
+      <c r="MX3" s="45"/>
+      <c r="MY3" s="45"/>
+      <c r="MZ3" s="45"/>
+      <c r="NA3" s="45"/>
+      <c r="NB3" s="45"/>
+      <c r="NC3" s="45"/>
+      <c r="ND3" s="45"/>
+      <c r="NE3" s="45"/>
+      <c r="NF3" s="45"/>
+      <c r="NG3" s="45"/>
+      <c r="NH3" s="45"/>
+      <c r="NI3" s="46"/>
     </row>
-    <row r="4" spans="1:373">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19">
         <v>7</v>
@@ -37488,398 +37488,398 @@
       </c>
       <c r="NI4" s="27"/>
     </row>
-    <row r="5" spans="1:373" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57" t="s">
+    <row r="5" spans="1:373" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="57"/>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="59" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
-      <c r="CJ5" s="59"/>
-      <c r="CK5" s="59"/>
-      <c r="CL5" s="59"/>
-      <c r="CM5" s="59"/>
-      <c r="CN5" s="59"/>
-      <c r="CO5" s="59"/>
-      <c r="CP5" s="59"/>
-      <c r="CQ5" s="59"/>
-      <c r="CR5" s="59"/>
-      <c r="CS5" s="59"/>
-      <c r="CT5" s="59"/>
-      <c r="CU5" s="59"/>
-      <c r="CV5" s="59"/>
-      <c r="CW5" s="59"/>
-      <c r="CX5" s="59"/>
-      <c r="CY5" s="59"/>
-      <c r="CZ5" s="59"/>
-      <c r="DA5" s="59"/>
-      <c r="DB5" s="59"/>
-      <c r="DC5" s="59"/>
-      <c r="DD5" s="60"/>
-      <c r="DE5" s="61" t="s">
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="68"/>
+      <c r="BQ5" s="68"/>
+      <c r="BR5" s="68"/>
+      <c r="BS5" s="68"/>
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="68"/>
+      <c r="BV5" s="68"/>
+      <c r="BW5" s="68"/>
+      <c r="BX5" s="68"/>
+      <c r="BY5" s="68"/>
+      <c r="BZ5" s="68"/>
+      <c r="CA5" s="68"/>
+      <c r="CB5" s="68"/>
+      <c r="CC5" s="68"/>
+      <c r="CD5" s="68"/>
+      <c r="CE5" s="68"/>
+      <c r="CF5" s="68"/>
+      <c r="CG5" s="68"/>
+      <c r="CH5" s="68"/>
+      <c r="CI5" s="68"/>
+      <c r="CJ5" s="68"/>
+      <c r="CK5" s="68"/>
+      <c r="CL5" s="68"/>
+      <c r="CM5" s="68"/>
+      <c r="CN5" s="68"/>
+      <c r="CO5" s="68"/>
+      <c r="CP5" s="68"/>
+      <c r="CQ5" s="68"/>
+      <c r="CR5" s="68"/>
+      <c r="CS5" s="68"/>
+      <c r="CT5" s="68"/>
+      <c r="CU5" s="68"/>
+      <c r="CV5" s="68"/>
+      <c r="CW5" s="68"/>
+      <c r="CX5" s="68"/>
+      <c r="CY5" s="68"/>
+      <c r="CZ5" s="68"/>
+      <c r="DA5" s="68"/>
+      <c r="DB5" s="68"/>
+      <c r="DC5" s="68"/>
+      <c r="DD5" s="69"/>
+      <c r="DE5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="DF5" s="61"/>
-      <c r="DG5" s="61"/>
-      <c r="DH5" s="61"/>
-      <c r="DI5" s="61"/>
-      <c r="DJ5" s="61"/>
-      <c r="DK5" s="61"/>
-      <c r="DL5" s="61"/>
-      <c r="DM5" s="61"/>
-      <c r="DN5" s="61"/>
-      <c r="DO5" s="61"/>
-      <c r="DP5" s="61"/>
-      <c r="DQ5" s="61"/>
-      <c r="DR5" s="61"/>
-      <c r="DS5" s="61"/>
-      <c r="DT5" s="61"/>
-      <c r="DU5" s="61"/>
-      <c r="DV5" s="61"/>
-      <c r="DW5" s="61"/>
-      <c r="DX5" s="61"/>
-      <c r="DY5" s="61"/>
-      <c r="DZ5" s="61"/>
-      <c r="EA5" s="61"/>
-      <c r="EB5" s="61"/>
-      <c r="EC5" s="61"/>
-      <c r="ED5" s="61"/>
-      <c r="EE5" s="61"/>
-      <c r="EF5" s="61"/>
-      <c r="EG5" s="61"/>
-      <c r="EH5" s="61"/>
-      <c r="EI5" s="61"/>
-      <c r="EJ5" s="61"/>
-      <c r="EK5" s="61"/>
-      <c r="EL5" s="61"/>
-      <c r="EM5" s="61"/>
-      <c r="EN5" s="61"/>
-      <c r="EO5" s="61"/>
-      <c r="EP5" s="61"/>
-      <c r="EQ5" s="61"/>
-      <c r="ER5" s="61"/>
-      <c r="ES5" s="61"/>
-      <c r="ET5" s="61"/>
-      <c r="EU5" s="61"/>
-      <c r="EV5" s="61"/>
-      <c r="EW5" s="61"/>
-      <c r="EX5" s="61"/>
-      <c r="EY5" s="61"/>
-      <c r="EZ5" s="61"/>
-      <c r="FA5" s="61"/>
-      <c r="FB5" s="61"/>
-      <c r="FC5" s="61"/>
-      <c r="FD5" s="61"/>
-      <c r="FE5" s="62"/>
-      <c r="FF5" s="63" t="s">
+      <c r="DF5" s="70"/>
+      <c r="DG5" s="70"/>
+      <c r="DH5" s="70"/>
+      <c r="DI5" s="70"/>
+      <c r="DJ5" s="70"/>
+      <c r="DK5" s="70"/>
+      <c r="DL5" s="70"/>
+      <c r="DM5" s="70"/>
+      <c r="DN5" s="70"/>
+      <c r="DO5" s="70"/>
+      <c r="DP5" s="70"/>
+      <c r="DQ5" s="70"/>
+      <c r="DR5" s="70"/>
+      <c r="DS5" s="70"/>
+      <c r="DT5" s="70"/>
+      <c r="DU5" s="70"/>
+      <c r="DV5" s="70"/>
+      <c r="DW5" s="70"/>
+      <c r="DX5" s="70"/>
+      <c r="DY5" s="70"/>
+      <c r="DZ5" s="70"/>
+      <c r="EA5" s="70"/>
+      <c r="EB5" s="70"/>
+      <c r="EC5" s="70"/>
+      <c r="ED5" s="70"/>
+      <c r="EE5" s="70"/>
+      <c r="EF5" s="70"/>
+      <c r="EG5" s="70"/>
+      <c r="EH5" s="70"/>
+      <c r="EI5" s="70"/>
+      <c r="EJ5" s="70"/>
+      <c r="EK5" s="70"/>
+      <c r="EL5" s="70"/>
+      <c r="EM5" s="70"/>
+      <c r="EN5" s="70"/>
+      <c r="EO5" s="70"/>
+      <c r="EP5" s="70"/>
+      <c r="EQ5" s="70"/>
+      <c r="ER5" s="70"/>
+      <c r="ES5" s="70"/>
+      <c r="ET5" s="70"/>
+      <c r="EU5" s="70"/>
+      <c r="EV5" s="70"/>
+      <c r="EW5" s="70"/>
+      <c r="EX5" s="70"/>
+      <c r="EY5" s="70"/>
+      <c r="EZ5" s="70"/>
+      <c r="FA5" s="70"/>
+      <c r="FB5" s="70"/>
+      <c r="FC5" s="70"/>
+      <c r="FD5" s="70"/>
+      <c r="FE5" s="71"/>
+      <c r="FF5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="FG5" s="63"/>
-      <c r="FH5" s="63"/>
-      <c r="FI5" s="63"/>
-      <c r="FJ5" s="63"/>
-      <c r="FK5" s="63"/>
-      <c r="FL5" s="63"/>
-      <c r="FM5" s="63"/>
-      <c r="FN5" s="63"/>
-      <c r="FO5" s="63"/>
-      <c r="FP5" s="63"/>
-      <c r="FQ5" s="63"/>
-      <c r="FR5" s="63"/>
-      <c r="FS5" s="63"/>
-      <c r="FT5" s="63"/>
-      <c r="FU5" s="63"/>
-      <c r="FV5" s="63"/>
-      <c r="FW5" s="63"/>
-      <c r="FX5" s="63"/>
-      <c r="FY5" s="63"/>
-      <c r="FZ5" s="63"/>
-      <c r="GA5" s="63"/>
-      <c r="GB5" s="63"/>
-      <c r="GC5" s="63"/>
-      <c r="GD5" s="63"/>
-      <c r="GE5" s="63"/>
-      <c r="GF5" s="63"/>
-      <c r="GG5" s="63"/>
-      <c r="GH5" s="63"/>
-      <c r="GI5" s="63"/>
-      <c r="GJ5" s="63"/>
-      <c r="GK5" s="63"/>
-      <c r="GL5" s="63"/>
-      <c r="GM5" s="63"/>
-      <c r="GN5" s="63"/>
-      <c r="GO5" s="63"/>
-      <c r="GP5" s="63"/>
-      <c r="GQ5" s="63"/>
-      <c r="GR5" s="63"/>
-      <c r="GS5" s="63"/>
-      <c r="GT5" s="63"/>
-      <c r="GU5" s="63"/>
-      <c r="GV5" s="63"/>
-      <c r="GW5" s="63"/>
-      <c r="GX5" s="63"/>
-      <c r="GY5" s="63"/>
-      <c r="GZ5" s="63"/>
-      <c r="HA5" s="63"/>
-      <c r="HB5" s="63"/>
-      <c r="HC5" s="63"/>
-      <c r="HD5" s="63"/>
-      <c r="HE5" s="63"/>
-      <c r="HF5" s="64"/>
-      <c r="HG5" s="48" t="s">
+      <c r="FG5" s="72"/>
+      <c r="FH5" s="72"/>
+      <c r="FI5" s="72"/>
+      <c r="FJ5" s="72"/>
+      <c r="FK5" s="72"/>
+      <c r="FL5" s="72"/>
+      <c r="FM5" s="72"/>
+      <c r="FN5" s="72"/>
+      <c r="FO5" s="72"/>
+      <c r="FP5" s="72"/>
+      <c r="FQ5" s="72"/>
+      <c r="FR5" s="72"/>
+      <c r="FS5" s="72"/>
+      <c r="FT5" s="72"/>
+      <c r="FU5" s="72"/>
+      <c r="FV5" s="72"/>
+      <c r="FW5" s="72"/>
+      <c r="FX5" s="72"/>
+      <c r="FY5" s="72"/>
+      <c r="FZ5" s="72"/>
+      <c r="GA5" s="72"/>
+      <c r="GB5" s="72"/>
+      <c r="GC5" s="72"/>
+      <c r="GD5" s="72"/>
+      <c r="GE5" s="72"/>
+      <c r="GF5" s="72"/>
+      <c r="GG5" s="72"/>
+      <c r="GH5" s="72"/>
+      <c r="GI5" s="72"/>
+      <c r="GJ5" s="72"/>
+      <c r="GK5" s="72"/>
+      <c r="GL5" s="72"/>
+      <c r="GM5" s="72"/>
+      <c r="GN5" s="72"/>
+      <c r="GO5" s="72"/>
+      <c r="GP5" s="72"/>
+      <c r="GQ5" s="72"/>
+      <c r="GR5" s="72"/>
+      <c r="GS5" s="72"/>
+      <c r="GT5" s="72"/>
+      <c r="GU5" s="72"/>
+      <c r="GV5" s="72"/>
+      <c r="GW5" s="72"/>
+      <c r="GX5" s="72"/>
+      <c r="GY5" s="72"/>
+      <c r="GZ5" s="72"/>
+      <c r="HA5" s="72"/>
+      <c r="HB5" s="72"/>
+      <c r="HC5" s="72"/>
+      <c r="HD5" s="72"/>
+      <c r="HE5" s="72"/>
+      <c r="HF5" s="73"/>
+      <c r="HG5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="HH5" s="48"/>
-      <c r="HI5" s="48"/>
-      <c r="HJ5" s="48"/>
-      <c r="HK5" s="48"/>
-      <c r="HL5" s="48"/>
-      <c r="HM5" s="48"/>
-      <c r="HN5" s="48"/>
-      <c r="HO5" s="48"/>
-      <c r="HP5" s="48"/>
-      <c r="HQ5" s="48"/>
-      <c r="HR5" s="48"/>
-      <c r="HS5" s="48"/>
-      <c r="HT5" s="48"/>
-      <c r="HU5" s="48"/>
-      <c r="HV5" s="48"/>
-      <c r="HW5" s="48"/>
-      <c r="HX5" s="48"/>
-      <c r="HY5" s="48"/>
-      <c r="HZ5" s="48"/>
-      <c r="IA5" s="48"/>
-      <c r="IB5" s="48"/>
-      <c r="IC5" s="48"/>
-      <c r="ID5" s="48"/>
-      <c r="IE5" s="48"/>
-      <c r="IF5" s="48"/>
-      <c r="IG5" s="48"/>
-      <c r="IH5" s="48"/>
-      <c r="II5" s="48"/>
-      <c r="IJ5" s="48"/>
-      <c r="IK5" s="48"/>
-      <c r="IL5" s="48"/>
-      <c r="IM5" s="48"/>
-      <c r="IN5" s="48"/>
-      <c r="IO5" s="48"/>
-      <c r="IP5" s="48"/>
-      <c r="IQ5" s="48"/>
-      <c r="IR5" s="48"/>
-      <c r="IS5" s="48"/>
-      <c r="IT5" s="48"/>
-      <c r="IU5" s="48"/>
-      <c r="IV5" s="48"/>
-      <c r="IW5" s="48"/>
-      <c r="IX5" s="48"/>
-      <c r="IY5" s="48"/>
-      <c r="IZ5" s="48"/>
-      <c r="JA5" s="48"/>
-      <c r="JB5" s="48"/>
-      <c r="JC5" s="48"/>
-      <c r="JD5" s="48"/>
-      <c r="JE5" s="48"/>
-      <c r="JF5" s="48"/>
-      <c r="JG5" s="49"/>
-      <c r="JH5" s="50" t="s">
+      <c r="HH5" s="60"/>
+      <c r="HI5" s="60"/>
+      <c r="HJ5" s="60"/>
+      <c r="HK5" s="60"/>
+      <c r="HL5" s="60"/>
+      <c r="HM5" s="60"/>
+      <c r="HN5" s="60"/>
+      <c r="HO5" s="60"/>
+      <c r="HP5" s="60"/>
+      <c r="HQ5" s="60"/>
+      <c r="HR5" s="60"/>
+      <c r="HS5" s="60"/>
+      <c r="HT5" s="60"/>
+      <c r="HU5" s="60"/>
+      <c r="HV5" s="60"/>
+      <c r="HW5" s="60"/>
+      <c r="HX5" s="60"/>
+      <c r="HY5" s="60"/>
+      <c r="HZ5" s="60"/>
+      <c r="IA5" s="60"/>
+      <c r="IB5" s="60"/>
+      <c r="IC5" s="60"/>
+      <c r="ID5" s="60"/>
+      <c r="IE5" s="60"/>
+      <c r="IF5" s="60"/>
+      <c r="IG5" s="60"/>
+      <c r="IH5" s="60"/>
+      <c r="II5" s="60"/>
+      <c r="IJ5" s="60"/>
+      <c r="IK5" s="60"/>
+      <c r="IL5" s="60"/>
+      <c r="IM5" s="60"/>
+      <c r="IN5" s="60"/>
+      <c r="IO5" s="60"/>
+      <c r="IP5" s="60"/>
+      <c r="IQ5" s="60"/>
+      <c r="IR5" s="60"/>
+      <c r="IS5" s="60"/>
+      <c r="IT5" s="60"/>
+      <c r="IU5" s="60"/>
+      <c r="IV5" s="60"/>
+      <c r="IW5" s="60"/>
+      <c r="IX5" s="60"/>
+      <c r="IY5" s="60"/>
+      <c r="IZ5" s="60"/>
+      <c r="JA5" s="60"/>
+      <c r="JB5" s="60"/>
+      <c r="JC5" s="60"/>
+      <c r="JD5" s="60"/>
+      <c r="JE5" s="60"/>
+      <c r="JF5" s="60"/>
+      <c r="JG5" s="61"/>
+      <c r="JH5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="JI5" s="50"/>
-      <c r="JJ5" s="50"/>
-      <c r="JK5" s="50"/>
-      <c r="JL5" s="50"/>
-      <c r="JM5" s="50"/>
-      <c r="JN5" s="50"/>
-      <c r="JO5" s="50"/>
-      <c r="JP5" s="50"/>
-      <c r="JQ5" s="50"/>
-      <c r="JR5" s="50"/>
-      <c r="JS5" s="50"/>
-      <c r="JT5" s="50"/>
-      <c r="JU5" s="50"/>
-      <c r="JV5" s="50"/>
-      <c r="JW5" s="50"/>
-      <c r="JX5" s="50"/>
-      <c r="JY5" s="50"/>
-      <c r="JZ5" s="50"/>
-      <c r="KA5" s="50"/>
-      <c r="KB5" s="50"/>
-      <c r="KC5" s="50"/>
-      <c r="KD5" s="50"/>
-      <c r="KE5" s="50"/>
-      <c r="KF5" s="50"/>
-      <c r="KG5" s="50"/>
-      <c r="KH5" s="50"/>
-      <c r="KI5" s="50"/>
-      <c r="KJ5" s="50"/>
-      <c r="KK5" s="50"/>
-      <c r="KL5" s="50"/>
-      <c r="KM5" s="50"/>
-      <c r="KN5" s="50"/>
-      <c r="KO5" s="50"/>
-      <c r="KP5" s="50"/>
-      <c r="KQ5" s="50"/>
-      <c r="KR5" s="50"/>
-      <c r="KS5" s="50"/>
-      <c r="KT5" s="50"/>
-      <c r="KU5" s="50"/>
-      <c r="KV5" s="50"/>
-      <c r="KW5" s="50"/>
-      <c r="KX5" s="50"/>
-      <c r="KY5" s="50"/>
-      <c r="KZ5" s="50"/>
-      <c r="LA5" s="50"/>
-      <c r="LB5" s="50"/>
-      <c r="LC5" s="50"/>
-      <c r="LD5" s="50"/>
-      <c r="LE5" s="50"/>
-      <c r="LF5" s="50"/>
-      <c r="LG5" s="50"/>
-      <c r="LH5" s="51"/>
-      <c r="LI5" s="52" t="s">
+      <c r="JI5" s="63"/>
+      <c r="JJ5" s="63"/>
+      <c r="JK5" s="63"/>
+      <c r="JL5" s="63"/>
+      <c r="JM5" s="63"/>
+      <c r="JN5" s="63"/>
+      <c r="JO5" s="63"/>
+      <c r="JP5" s="63"/>
+      <c r="JQ5" s="63"/>
+      <c r="JR5" s="63"/>
+      <c r="JS5" s="63"/>
+      <c r="JT5" s="63"/>
+      <c r="JU5" s="63"/>
+      <c r="JV5" s="63"/>
+      <c r="JW5" s="63"/>
+      <c r="JX5" s="63"/>
+      <c r="JY5" s="63"/>
+      <c r="JZ5" s="63"/>
+      <c r="KA5" s="63"/>
+      <c r="KB5" s="63"/>
+      <c r="KC5" s="63"/>
+      <c r="KD5" s="63"/>
+      <c r="KE5" s="63"/>
+      <c r="KF5" s="63"/>
+      <c r="KG5" s="63"/>
+      <c r="KH5" s="63"/>
+      <c r="KI5" s="63"/>
+      <c r="KJ5" s="63"/>
+      <c r="KK5" s="63"/>
+      <c r="KL5" s="63"/>
+      <c r="KM5" s="63"/>
+      <c r="KN5" s="63"/>
+      <c r="KO5" s="63"/>
+      <c r="KP5" s="63"/>
+      <c r="KQ5" s="63"/>
+      <c r="KR5" s="63"/>
+      <c r="KS5" s="63"/>
+      <c r="KT5" s="63"/>
+      <c r="KU5" s="63"/>
+      <c r="KV5" s="63"/>
+      <c r="KW5" s="63"/>
+      <c r="KX5" s="63"/>
+      <c r="KY5" s="63"/>
+      <c r="KZ5" s="63"/>
+      <c r="LA5" s="63"/>
+      <c r="LB5" s="63"/>
+      <c r="LC5" s="63"/>
+      <c r="LD5" s="63"/>
+      <c r="LE5" s="63"/>
+      <c r="LF5" s="63"/>
+      <c r="LG5" s="63"/>
+      <c r="LH5" s="64"/>
+      <c r="LI5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="LJ5" s="52"/>
-      <c r="LK5" s="52"/>
-      <c r="LL5" s="52"/>
-      <c r="LM5" s="52"/>
-      <c r="LN5" s="52"/>
-      <c r="LO5" s="52"/>
-      <c r="LP5" s="52"/>
-      <c r="LQ5" s="52"/>
-      <c r="LR5" s="52"/>
-      <c r="LS5" s="52"/>
-      <c r="LT5" s="52"/>
-      <c r="LU5" s="52"/>
-      <c r="LV5" s="52"/>
-      <c r="LW5" s="52"/>
-      <c r="LX5" s="52"/>
-      <c r="LY5" s="52"/>
-      <c r="LZ5" s="52"/>
-      <c r="MA5" s="52"/>
-      <c r="MB5" s="52"/>
-      <c r="MC5" s="52"/>
-      <c r="MD5" s="52"/>
-      <c r="ME5" s="52"/>
-      <c r="MF5" s="52"/>
-      <c r="MG5" s="52"/>
-      <c r="MH5" s="52"/>
-      <c r="MI5" s="52"/>
-      <c r="MJ5" s="52"/>
-      <c r="MK5" s="52"/>
-      <c r="ML5" s="52"/>
-      <c r="MM5" s="52"/>
-      <c r="MN5" s="52"/>
-      <c r="MO5" s="52"/>
-      <c r="MP5" s="52"/>
-      <c r="MQ5" s="52"/>
-      <c r="MR5" s="52"/>
-      <c r="MS5" s="52"/>
-      <c r="MT5" s="52"/>
-      <c r="MU5" s="52"/>
-      <c r="MV5" s="52"/>
-      <c r="MW5" s="52"/>
-      <c r="MX5" s="52"/>
-      <c r="MY5" s="52"/>
-      <c r="MZ5" s="52"/>
-      <c r="NA5" s="52"/>
-      <c r="NB5" s="52"/>
-      <c r="NC5" s="52"/>
-      <c r="ND5" s="52"/>
-      <c r="NE5" s="52"/>
-      <c r="NF5" s="52"/>
-      <c r="NG5" s="52"/>
-      <c r="NH5" s="52"/>
-      <c r="NI5" s="53"/>
+      <c r="LJ5" s="45"/>
+      <c r="LK5" s="45"/>
+      <c r="LL5" s="45"/>
+      <c r="LM5" s="45"/>
+      <c r="LN5" s="45"/>
+      <c r="LO5" s="45"/>
+      <c r="LP5" s="45"/>
+      <c r="LQ5" s="45"/>
+      <c r="LR5" s="45"/>
+      <c r="LS5" s="45"/>
+      <c r="LT5" s="45"/>
+      <c r="LU5" s="45"/>
+      <c r="LV5" s="45"/>
+      <c r="LW5" s="45"/>
+      <c r="LX5" s="45"/>
+      <c r="LY5" s="45"/>
+      <c r="LZ5" s="45"/>
+      <c r="MA5" s="45"/>
+      <c r="MB5" s="45"/>
+      <c r="MC5" s="45"/>
+      <c r="MD5" s="45"/>
+      <c r="ME5" s="45"/>
+      <c r="MF5" s="45"/>
+      <c r="MG5" s="45"/>
+      <c r="MH5" s="45"/>
+      <c r="MI5" s="45"/>
+      <c r="MJ5" s="45"/>
+      <c r="MK5" s="45"/>
+      <c r="ML5" s="45"/>
+      <c r="MM5" s="45"/>
+      <c r="MN5" s="45"/>
+      <c r="MO5" s="45"/>
+      <c r="MP5" s="45"/>
+      <c r="MQ5" s="45"/>
+      <c r="MR5" s="45"/>
+      <c r="MS5" s="45"/>
+      <c r="MT5" s="45"/>
+      <c r="MU5" s="45"/>
+      <c r="MV5" s="45"/>
+      <c r="MW5" s="45"/>
+      <c r="MX5" s="45"/>
+      <c r="MY5" s="45"/>
+      <c r="MZ5" s="45"/>
+      <c r="NA5" s="45"/>
+      <c r="NB5" s="45"/>
+      <c r="NC5" s="45"/>
+      <c r="ND5" s="45"/>
+      <c r="NE5" s="45"/>
+      <c r="NF5" s="45"/>
+      <c r="NG5" s="45"/>
+      <c r="NH5" s="45"/>
+      <c r="NI5" s="46"/>
     </row>
-    <row r="6" spans="1:373" s="28" customFormat="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+    <row r="6" spans="1:373" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="29">
         <v>1</v>
       </c>
@@ -38994,8 +38994,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:373">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -39373,8 +39373,8 @@
       <c r="NH7" s="44"/>
       <c r="NI7" s="44"/>
     </row>
-    <row r="8" spans="1:373">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
       <c r="B8" s="43" t="s">
         <v>11</v>
       </c>
@@ -39750,8 +39750,8 @@
       <c r="NH8" s="44"/>
       <c r="NI8" s="44"/>
     </row>
-    <row r="9" spans="1:373">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
       <c r="B9" s="43" t="s">
         <v>12</v>
       </c>
@@ -40127,8 +40127,8 @@
       <c r="NH9" s="44"/>
       <c r="NI9" s="44"/>
     </row>
-    <row r="10" spans="1:373">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A10" s="74"/>
       <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
@@ -40504,8 +40504,8 @@
       <c r="NH10" s="44"/>
       <c r="NI10" s="44"/>
     </row>
-    <row r="11" spans="1:373">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
       <c r="B11" s="43" t="s">
         <v>11</v>
       </c>
@@ -40881,8 +40881,8 @@
       <c r="NH11" s="44"/>
       <c r="NI11" s="44"/>
     </row>
-    <row r="12" spans="1:373">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
       <c r="B12" s="43" t="s">
         <v>12</v>
       </c>
@@ -41258,8 +41258,8 @@
       <c r="NH12" s="44"/>
       <c r="NI12" s="44"/>
     </row>
-    <row r="13" spans="1:373">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A13" s="74"/>
       <c r="B13" s="43" t="s">
         <v>10</v>
       </c>
@@ -41635,8 +41635,8 @@
       <c r="NH13" s="44"/>
       <c r="NI13" s="44"/>
     </row>
-    <row r="14" spans="1:373">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A14" s="75"/>
       <c r="B14" s="43" t="s">
         <v>11</v>
       </c>
@@ -42012,8 +42012,8 @@
       <c r="NH14" s="44"/>
       <c r="NI14" s="44"/>
     </row>
-    <row r="15" spans="1:373">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A15" s="76"/>
       <c r="B15" s="43" t="s">
         <v>12</v>
       </c>
@@ -42389,8 +42389,8 @@
       <c r="NH15" s="44"/>
       <c r="NI15" s="44"/>
     </row>
-    <row r="16" spans="1:373">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A16" s="74"/>
       <c r="B16" s="43" t="s">
         <v>10</v>
       </c>
@@ -42766,8 +42766,8 @@
       <c r="NH16" s="44"/>
       <c r="NI16" s="44"/>
     </row>
-    <row r="17" spans="1:373">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A17" s="75"/>
       <c r="B17" s="43" t="s">
         <v>11</v>
       </c>
@@ -43143,8 +43143,8 @@
       <c r="NH17" s="44"/>
       <c r="NI17" s="44"/>
     </row>
-    <row r="18" spans="1:373">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A18" s="76"/>
       <c r="B18" s="43" t="s">
         <v>12</v>
       </c>
@@ -43520,8 +43520,8 @@
       <c r="NH18" s="44"/>
       <c r="NI18" s="44"/>
     </row>
-    <row r="19" spans="1:373">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A19" s="74"/>
       <c r="B19" s="43" t="s">
         <v>10</v>
       </c>
@@ -43897,8 +43897,8 @@
       <c r="NH19" s="44"/>
       <c r="NI19" s="44"/>
     </row>
-    <row r="20" spans="1:373">
-      <c r="A20" s="46"/>
+    <row r="20" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A20" s="75"/>
       <c r="B20" s="43" t="s">
         <v>11</v>
       </c>
@@ -44274,8 +44274,8 @@
       <c r="NH20" s="44"/>
       <c r="NI20" s="44"/>
     </row>
-    <row r="21" spans="1:373">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A21" s="76"/>
       <c r="B21" s="43" t="s">
         <v>12</v>
       </c>
@@ -44651,8 +44651,8 @@
       <c r="NH21" s="44"/>
       <c r="NI21" s="44"/>
     </row>
-    <row r="22" spans="1:373">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A22" s="74"/>
       <c r="B22" s="43" t="s">
         <v>10</v>
       </c>
@@ -45028,8 +45028,8 @@
       <c r="NH22" s="44"/>
       <c r="NI22" s="44"/>
     </row>
-    <row r="23" spans="1:373">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A23" s="75"/>
       <c r="B23" s="43" t="s">
         <v>11</v>
       </c>
@@ -45405,8 +45405,8 @@
       <c r="NH23" s="44"/>
       <c r="NI23" s="44"/>
     </row>
-    <row r="24" spans="1:373">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A24" s="76"/>
       <c r="B24" s="43" t="s">
         <v>12</v>
       </c>
@@ -45782,8 +45782,8 @@
       <c r="NH24" s="44"/>
       <c r="NI24" s="44"/>
     </row>
-    <row r="25" spans="1:373">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
       <c r="B25" s="43" t="s">
         <v>10</v>
       </c>
@@ -46159,8 +46159,8 @@
       <c r="NH25" s="44"/>
       <c r="NI25" s="44"/>
     </row>
-    <row r="26" spans="1:373">
-      <c r="A26" s="46"/>
+    <row r="26" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A26" s="75"/>
       <c r="B26" s="43" t="s">
         <v>11</v>
       </c>
@@ -46536,8 +46536,8 @@
       <c r="NH26" s="44"/>
       <c r="NI26" s="44"/>
     </row>
-    <row r="27" spans="1:373">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A27" s="76"/>
       <c r="B27" s="43" t="s">
         <v>12</v>
       </c>
@@ -46913,8 +46913,8 @@
       <c r="NH27" s="44"/>
       <c r="NI27" s="44"/>
     </row>
-    <row r="28" spans="1:373">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A28" s="74"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
@@ -47290,8 +47290,8 @@
       <c r="NH28" s="44"/>
       <c r="NI28" s="44"/>
     </row>
-    <row r="29" spans="1:373">
-      <c r="A29" s="46"/>
+    <row r="29" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A29" s="75"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
@@ -47667,8 +47667,8 @@
       <c r="NH29" s="44"/>
       <c r="NI29" s="44"/>
     </row>
-    <row r="30" spans="1:373">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A30" s="76"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
@@ -48044,8 +48044,8 @@
       <c r="NH30" s="44"/>
       <c r="NI30" s="44"/>
     </row>
-    <row r="31" spans="1:373">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A31" s="74"/>
       <c r="B31" s="43" t="s">
         <v>10</v>
       </c>
@@ -48421,8 +48421,8 @@
       <c r="NH31" s="44"/>
       <c r="NI31" s="44"/>
     </row>
-    <row r="32" spans="1:373">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A32" s="75"/>
       <c r="B32" s="43" t="s">
         <v>11</v>
       </c>
@@ -48798,8 +48798,8 @@
       <c r="NH32" s="44"/>
       <c r="NI32" s="44"/>
     </row>
-    <row r="33" spans="1:373">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A33" s="76"/>
       <c r="B33" s="43" t="s">
         <v>12</v>
       </c>
@@ -49175,8 +49175,8 @@
       <c r="NH33" s="44"/>
       <c r="NI33" s="44"/>
     </row>
-    <row r="34" spans="1:373">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A34" s="74"/>
       <c r="B34" s="43" t="s">
         <v>10</v>
       </c>
@@ -49552,8 +49552,8 @@
       <c r="NH34" s="44"/>
       <c r="NI34" s="44"/>
     </row>
-    <row r="35" spans="1:373">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A35" s="75"/>
       <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
@@ -49929,8 +49929,8 @@
       <c r="NH35" s="44"/>
       <c r="NI35" s="44"/>
     </row>
-    <row r="36" spans="1:373">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A36" s="76"/>
       <c r="B36" s="43" t="s">
         <v>12</v>
       </c>
@@ -50306,8 +50306,8 @@
       <c r="NH36" s="44"/>
       <c r="NI36" s="44"/>
     </row>
-    <row r="37" spans="1:373">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A37" s="74"/>
       <c r="B37" s="43" t="s">
         <v>10</v>
       </c>
@@ -50683,8 +50683,8 @@
       <c r="NH37" s="44"/>
       <c r="NI37" s="44"/>
     </row>
-    <row r="38" spans="1:373">
-      <c r="A38" s="46"/>
+    <row r="38" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A38" s="75"/>
       <c r="B38" s="43" t="s">
         <v>11</v>
       </c>
@@ -51060,8 +51060,8 @@
       <c r="NH38" s="44"/>
       <c r="NI38" s="44"/>
     </row>
-    <row r="39" spans="1:373">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A39" s="76"/>
       <c r="B39" s="43" t="s">
         <v>12</v>
       </c>
@@ -51437,8 +51437,8 @@
       <c r="NH39" s="44"/>
       <c r="NI39" s="44"/>
     </row>
-    <row r="40" spans="1:373">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A40" s="74"/>
       <c r="B40" s="43" t="s">
         <v>10</v>
       </c>
@@ -51814,8 +51814,8 @@
       <c r="NH40" s="44"/>
       <c r="NI40" s="44"/>
     </row>
-    <row r="41" spans="1:373">
-      <c r="A41" s="46"/>
+    <row r="41" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A41" s="75"/>
       <c r="B41" s="43" t="s">
         <v>11</v>
       </c>
@@ -52191,8 +52191,8 @@
       <c r="NH41" s="44"/>
       <c r="NI41" s="44"/>
     </row>
-    <row r="42" spans="1:373">
-      <c r="A42" s="47"/>
+    <row r="42" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A42" s="76"/>
       <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
@@ -52568,8 +52568,8 @@
       <c r="NH42" s="44"/>
       <c r="NI42" s="44"/>
     </row>
-    <row r="43" spans="1:373">
-      <c r="A43" s="45"/>
+    <row r="43" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
       <c r="B43" s="43" t="s">
         <v>10</v>
       </c>
@@ -52945,8 +52945,8 @@
       <c r="NH43" s="44"/>
       <c r="NI43" s="44"/>
     </row>
-    <row r="44" spans="1:373">
-      <c r="A44" s="46"/>
+    <row r="44" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A44" s="75"/>
       <c r="B44" s="43" t="s">
         <v>11</v>
       </c>
@@ -53322,8 +53322,8 @@
       <c r="NH44" s="44"/>
       <c r="NI44" s="44"/>
     </row>
-    <row r="45" spans="1:373">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A45" s="76"/>
       <c r="B45" s="43" t="s">
         <v>12</v>
       </c>
@@ -53699,8 +53699,8 @@
       <c r="NH45" s="44"/>
       <c r="NI45" s="44"/>
     </row>
-    <row r="46" spans="1:373">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A46" s="74"/>
       <c r="B46" s="43" t="s">
         <v>10</v>
       </c>
@@ -54076,8 +54076,8 @@
       <c r="NH46" s="44"/>
       <c r="NI46" s="44"/>
     </row>
-    <row r="47" spans="1:373">
-      <c r="A47" s="46"/>
+    <row r="47" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A47" s="75"/>
       <c r="B47" s="43" t="s">
         <v>11</v>
       </c>
@@ -54453,8 +54453,8 @@
       <c r="NH47" s="44"/>
       <c r="NI47" s="44"/>
     </row>
-    <row r="48" spans="1:373">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A48" s="76"/>
       <c r="B48" s="43" t="s">
         <v>12</v>
       </c>
@@ -54830,8 +54830,8 @@
       <c r="NH48" s="44"/>
       <c r="NI48" s="44"/>
     </row>
-    <row r="49" spans="1:373">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A49" s="74"/>
       <c r="B49" s="43" t="s">
         <v>10</v>
       </c>
@@ -55207,8 +55207,8 @@
       <c r="NH49" s="44"/>
       <c r="NI49" s="44"/>
     </row>
-    <row r="50" spans="1:373">
-      <c r="A50" s="46"/>
+    <row r="50" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A50" s="75"/>
       <c r="B50" s="43" t="s">
         <v>11</v>
       </c>
@@ -55584,8 +55584,8 @@
       <c r="NH50" s="44"/>
       <c r="NI50" s="44"/>
     </row>
-    <row r="51" spans="1:373">
-      <c r="A51" s="47"/>
+    <row r="51" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A51" s="76"/>
       <c r="B51" s="43" t="s">
         <v>12</v>
       </c>
@@ -55961,8 +55961,8 @@
       <c r="NH51" s="44"/>
       <c r="NI51" s="44"/>
     </row>
-    <row r="52" spans="1:373">
-      <c r="A52" s="45"/>
+    <row r="52" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A52" s="74"/>
       <c r="B52" s="43" t="s">
         <v>10</v>
       </c>
@@ -56338,8 +56338,8 @@
       <c r="NH52" s="44"/>
       <c r="NI52" s="44"/>
     </row>
-    <row r="53" spans="1:373">
-      <c r="A53" s="46"/>
+    <row r="53" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A53" s="75"/>
       <c r="B53" s="43" t="s">
         <v>11</v>
       </c>
@@ -56715,8 +56715,8 @@
       <c r="NH53" s="44"/>
       <c r="NI53" s="44"/>
     </row>
-    <row r="54" spans="1:373">
-      <c r="A54" s="47"/>
+    <row r="54" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A54" s="76"/>
       <c r="B54" s="43" t="s">
         <v>12</v>
       </c>
@@ -57092,8 +57092,8 @@
       <c r="NH54" s="44"/>
       <c r="NI54" s="44"/>
     </row>
-    <row r="55" spans="1:373">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A55" s="74"/>
       <c r="B55" s="43" t="s">
         <v>10</v>
       </c>
@@ -57469,8 +57469,8 @@
       <c r="NH55" s="44"/>
       <c r="NI55" s="44"/>
     </row>
-    <row r="56" spans="1:373">
-      <c r="A56" s="46"/>
+    <row r="56" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A56" s="75"/>
       <c r="B56" s="43" t="s">
         <v>11</v>
       </c>
@@ -57846,8 +57846,8 @@
       <c r="NH56" s="44"/>
       <c r="NI56" s="44"/>
     </row>
-    <row r="57" spans="1:373">
-      <c r="A57" s="47"/>
+    <row r="57" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A57" s="76"/>
       <c r="B57" s="43" t="s">
         <v>12</v>
       </c>
@@ -58223,8 +58223,8 @@
       <c r="NH57" s="44"/>
       <c r="NI57" s="44"/>
     </row>
-    <row r="58" spans="1:373">
-      <c r="A58" s="45"/>
+    <row r="58" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A58" s="74"/>
       <c r="B58" s="43" t="s">
         <v>10</v>
       </c>
@@ -58600,8 +58600,8 @@
       <c r="NH58" s="44"/>
       <c r="NI58" s="44"/>
     </row>
-    <row r="59" spans="1:373">
-      <c r="A59" s="46"/>
+    <row r="59" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A59" s="75"/>
       <c r="B59" s="43" t="s">
         <v>11</v>
       </c>
@@ -58977,8 +58977,8 @@
       <c r="NH59" s="44"/>
       <c r="NI59" s="44"/>
     </row>
-    <row r="60" spans="1:373">
-      <c r="A60" s="47"/>
+    <row r="60" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A60" s="76"/>
       <c r="B60" s="43" t="s">
         <v>12</v>
       </c>
@@ -59354,8 +59354,8 @@
       <c r="NH60" s="44"/>
       <c r="NI60" s="44"/>
     </row>
-    <row r="61" spans="1:373">
-      <c r="A61" s="45"/>
+    <row r="61" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A61" s="74"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
@@ -59731,8 +59731,8 @@
       <c r="NH61" s="44"/>
       <c r="NI61" s="44"/>
     </row>
-    <row r="62" spans="1:373">
-      <c r="A62" s="46"/>
+    <row r="62" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A62" s="75"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
@@ -60108,8 +60108,8 @@
       <c r="NH62" s="44"/>
       <c r="NI62" s="44"/>
     </row>
-    <row r="63" spans="1:373">
-      <c r="A63" s="47"/>
+    <row r="63" spans="1:373" x14ac:dyDescent="0.2">
+      <c r="A63" s="76"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
@@ -60487,6 +60487,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="LI5:NI5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="DE5:FE5"/>
+    <mergeCell ref="FF5:HF5"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="HG1:JG1"/>
+    <mergeCell ref="JH1:LH1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C5:BC5"/>
+    <mergeCell ref="BD5:DD5"/>
+    <mergeCell ref="HG5:JG5"/>
+    <mergeCell ref="JH5:LH5"/>
     <mergeCell ref="LI1:NI1"/>
     <mergeCell ref="C3:BC3"/>
     <mergeCell ref="BD3:DD3"/>
@@ -60499,36 +60529,6 @@
     <mergeCell ref="BD1:DD1"/>
     <mergeCell ref="DE1:FE1"/>
     <mergeCell ref="FF1:HF1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="HG1:JG1"/>
-    <mergeCell ref="JH1:LH1"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C5:BC5"/>
-    <mergeCell ref="BD5:DD5"/>
-    <mergeCell ref="HG5:JG5"/>
-    <mergeCell ref="JH5:LH5"/>
-    <mergeCell ref="LI5:NI5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="DE5:FE5"/>
-    <mergeCell ref="FF5:HF5"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
